--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_240924openfieldtrace/processed_240924openfieldtrace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_240924openfieldtrace/processed_240924openfieldtrace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X54"/>
+  <dimension ref="A1:X96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1870</v>
+        <v>866</v>
       </c>
       <c r="B2" t="n">
-        <v>1939</v>
+        <v>890</v>
       </c>
       <c r="C2" t="n">
-        <v>2084</v>
+        <v>986</v>
       </c>
       <c r="D2" t="n">
-        <v>3.819194197292711</v>
+        <v>1.549640688234365</v>
       </c>
       <c r="E2" t="n">
-        <v>3.068247712523048</v>
+        <v>0.8013325078963257</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.7509464847696634</v>
+        <v>-0.7483081803380397</v>
       </c>
       <c r="G2" t="n">
-        <v>214</v>
+        <v>120</v>
       </c>
       <c r="H2" t="n">
-        <v>87.52718356972628</v>
+        <v>26.37915345382532</v>
       </c>
       <c r="I2" t="n">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="J2" t="n">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="K2" t="n">
-        <v>416.8426256245214</v>
+        <v>112.39778010001</v>
       </c>
       <c r="L2" t="n">
-        <v>13.3119769252199</v>
+        <v>5.393560737948047</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.8801857182219357</v>
+        <v>0.7888246819907599</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4758620689655172</v>
+        <v>0.25</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2586348121384646</v>
+        <v>0.372911968313037</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9119708078198396</v>
+        <v>0.4821464891690223</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>484</v>
+        <v>923</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>867</v>
+        <v>1856</v>
       </c>
       <c r="B3" t="n">
-        <v>900</v>
+        <v>1943</v>
       </c>
       <c r="C3" t="n">
-        <v>943</v>
+        <v>2087</v>
       </c>
       <c r="D3" t="n">
-        <v>2.363407488515572</v>
+        <v>4.041154766750799</v>
       </c>
       <c r="E3" t="n">
-        <v>1.659574430779282</v>
+        <v>3.29284658641276</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.7038330577362892</v>
+        <v>-0.7483081803380397</v>
       </c>
       <c r="G3" t="n">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="H3" t="n">
-        <v>26.47517119686927</v>
+        <v>85.21540110065234</v>
       </c>
       <c r="I3" t="n">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="J3" t="n">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="K3" t="n">
-        <v>121.9035136816193</v>
+        <v>418.4916669354676</v>
       </c>
       <c r="L3" t="n">
-        <v>6.620555898863256</v>
+        <v>14.06533388765944</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,24 +692,24 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.8059890757657237</v>
+        <v>0.7670198205337394</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7674418604651163</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3076368230692157</v>
+        <v>0.4074303031995886</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9855215351970048</v>
+        <v>0.899785301822448</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U3" t="n">
-        <v>485</v>
+        <v>924</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>943</v>
+        <v>2087</v>
       </c>
       <c r="B4" t="n">
-        <v>982</v>
+        <v>2123</v>
       </c>
       <c r="C4" t="n">
-        <v>1056</v>
+        <v>2186</v>
       </c>
       <c r="D4" t="n">
-        <v>2.444485538766722</v>
+        <v>1.659723773674453</v>
       </c>
       <c r="E4" t="n">
-        <v>1.740652481030433</v>
+        <v>0.9114155933364128</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.7038330577362892</v>
+        <v>-0.7483081803380397</v>
       </c>
       <c r="G4" t="n">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H4" t="n">
-        <v>305.3209602280917</v>
+        <v>51.64673089851976</v>
       </c>
       <c r="I4" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J4" t="n">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="K4" t="n">
-        <v>192.196013236666</v>
+        <v>117.207348821484</v>
       </c>
       <c r="L4" t="n">
-        <v>6.847677868505374</v>
+        <v>5.776707497096668</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,24 +778,24 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.7526645366027294</v>
+        <v>0.6993317166983239</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.527027027027027</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1690944020314216</v>
+        <v>0.07730025002330765</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9794081867331925</v>
+        <v>0.9561323415232054</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>486</v>
+        <v>925</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1796</v>
+        <v>2186</v>
       </c>
       <c r="B5" t="n">
-        <v>1870</v>
+        <v>2214</v>
       </c>
       <c r="C5" t="n">
-        <v>2034</v>
+        <v>2269</v>
       </c>
       <c r="D5" t="n">
-        <v>3.099280690694444</v>
+        <v>1.6285180702693</v>
       </c>
       <c r="E5" t="n">
-        <v>2.301651986640791</v>
+        <v>0.8802098899312601</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.7976287040536535</v>
+        <v>-0.7483081803380397</v>
       </c>
       <c r="G5" t="n">
-        <v>238</v>
+        <v>83</v>
       </c>
       <c r="H5" t="n">
-        <v>218.8788012479092</v>
+        <v>26.60856567559131</v>
       </c>
       <c r="I5" t="n">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="J5" t="n">
-        <v>164</v>
+        <v>55</v>
       </c>
       <c r="K5" t="n">
-        <v>397.5303827819074</v>
+        <v>108.7406541530815</v>
       </c>
       <c r="L5" t="n">
-        <v>15.82661275667777</v>
+        <v>5.668095314954075</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.7271452784424399</v>
+        <v>0.756542302814311</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.451219512195122</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5064202055223104</v>
+        <v>0.2172955919872696</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9853353200100342</v>
+        <v>0.5074899099675189</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>487</v>
+        <v>926</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2187</v>
+        <v>2474</v>
       </c>
       <c r="B6" t="n">
-        <v>2224</v>
+        <v>2499</v>
       </c>
       <c r="C6" t="n">
-        <v>2369</v>
+        <v>2545</v>
       </c>
       <c r="D6" t="n">
-        <v>1.033599505710645</v>
+        <v>1.619596612246822</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4914035357443284</v>
+        <v>0.8712884319087824</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5421959699663168</v>
+        <v>-0.7483081803380397</v>
       </c>
       <c r="G6" t="n">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="H6" t="n">
-        <v>50.06316652712758</v>
+        <v>21.14115324631393</v>
       </c>
       <c r="I6" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="J6" t="n">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="K6" t="n">
-        <v>73.53741688631473</v>
+        <v>87.22786116855617</v>
       </c>
       <c r="L6" t="n">
-        <v>14.13677721660239</v>
+        <v>5.637043971193792</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.8744002361131678</v>
+        <v>0.7921987232198011</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2551724137931035</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="R6" t="n">
-        <v>0.402473198355647</v>
+        <v>0.1713952350601017</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7295399229374846</v>
+        <v>0.9640865708811286</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>488</v>
+        <v>927</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2624</v>
+        <v>870</v>
       </c>
       <c r="B7" t="n">
-        <v>2651</v>
+        <v>894</v>
       </c>
       <c r="C7" t="n">
-        <v>2747</v>
+        <v>945</v>
       </c>
       <c r="D7" t="n">
-        <v>1.758102105158822</v>
+        <v>2.407864481947502</v>
       </c>
       <c r="E7" t="n">
-        <v>1.215906135192505</v>
+        <v>1.725387953025775</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5421959699663168</v>
+        <v>-0.6824765289217272</v>
       </c>
       <c r="G7" t="n">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="H7" t="n">
-        <v>29.34346136238355</v>
+        <v>29.38605052329569</v>
       </c>
       <c r="I7" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J7" t="n">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="K7" t="n">
-        <v>143.4810887719814</v>
+        <v>124.3637513030784</v>
       </c>
       <c r="L7" t="n">
-        <v>24.0459652383268</v>
+        <v>6.751952788996041</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.9225977537758931</v>
+        <v>0.9072972513811417</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.28125</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="R7" t="n">
-        <v>0.362664079075607</v>
+        <v>0.3279262292989082</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9756464088593459</v>
+        <v>0.9959516853480189</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>489</v>
+        <v>928</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2807</v>
+        <v>945</v>
       </c>
       <c r="B8" t="n">
-        <v>2882</v>
+        <v>981</v>
       </c>
       <c r="C8" t="n">
-        <v>2998</v>
+        <v>1063</v>
       </c>
       <c r="D8" t="n">
-        <v>3.506954413226611</v>
+        <v>2.524000558101857</v>
       </c>
       <c r="E8" t="n">
-        <v>2.964758443260294</v>
+        <v>1.84152402918013</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5421959699663168</v>
+        <v>-0.6824765289217272</v>
       </c>
       <c r="G8" t="n">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="H8" t="n">
-        <v>139.7127168107886</v>
+        <v>184.1103815559344</v>
       </c>
       <c r="I8" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="J8" t="n">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="K8" t="n">
-        <v>455.1099426315504</v>
+        <v>194.3787105722211</v>
       </c>
       <c r="L8" t="n">
-        <v>47.96541888289582</v>
+        <v>7.077612853826282</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.7203972507081543</v>
+        <v>0.811411625378136</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.646551724137931</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4278671891552278</v>
+        <v>0.1964972410350147</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9507561324052622</v>
+        <v>0.9556638121749337</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>490</v>
+        <v>929</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>219</v>
+        <v>2254</v>
       </c>
       <c r="B9" t="n">
-        <v>258</v>
+        <v>2336</v>
       </c>
       <c r="C9" t="n">
-        <v>347</v>
+        <v>2439</v>
       </c>
       <c r="D9" t="n">
-        <v>3.119004642478671</v>
+        <v>1.742784091136237</v>
       </c>
       <c r="E9" t="n">
-        <v>2.461809490290801</v>
+        <v>1.06030756221451</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6571951521878702</v>
+        <v>-0.6824765289217272</v>
       </c>
       <c r="G9" t="n">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="H9" t="n">
-        <v>55.05205501746039</v>
+        <v>97.59757124254975</v>
       </c>
       <c r="I9" t="n">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="J9" t="n">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K9" t="n">
-        <v>258.0056806902755</v>
+        <v>190.1337819273329</v>
       </c>
       <c r="L9" t="n">
-        <v>13.43556552205492</v>
+        <v>4.886984293753874</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,24 +1208,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.7980681099729257</v>
+        <v>0.5953080263897976</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.4382022471910113</v>
+        <v>0.7961165048543689</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1082549753254728</v>
+        <v>0.107525833119787</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9649856931364132</v>
+        <v>0.9593049548874857</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>491</v>
+        <v>930</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>423</v>
+        <v>2439</v>
       </c>
       <c r="B10" t="n">
-        <v>461</v>
+        <v>2509</v>
       </c>
       <c r="C10" t="n">
-        <v>556</v>
+        <v>2784</v>
       </c>
       <c r="D10" t="n">
-        <v>3.251020554374715</v>
+        <v>2.32621264156862</v>
       </c>
       <c r="E10" t="n">
-        <v>2.593825402186845</v>
+        <v>1.643736112646893</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6571951521878702</v>
+        <v>-0.6824765289217272</v>
       </c>
       <c r="G10" t="n">
-        <v>133</v>
+        <v>345</v>
       </c>
       <c r="H10" t="n">
-        <v>34.0636270281675</v>
+        <v>145.4325186344513</v>
       </c>
       <c r="I10" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="J10" t="n">
-        <v>95</v>
+        <v>275</v>
       </c>
       <c r="K10" t="n">
-        <v>255.0996551691663</v>
+        <v>322.562131357924</v>
       </c>
       <c r="L10" t="n">
-        <v>14.00424323739924</v>
+        <v>6.522990828924707</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.8698253348822913</v>
+        <v>0.7982637556807292</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="R10" t="n">
-        <v>0.4143781327342829</v>
+        <v>0.3106870592368276</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9629758476724173</v>
+        <v>0.6513512498436682</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>492</v>
+        <v>931</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>556</v>
+        <v>794</v>
       </c>
       <c r="B11" t="n">
-        <v>606</v>
+        <v>818</v>
       </c>
       <c r="C11" t="n">
-        <v>673</v>
+        <v>889</v>
       </c>
       <c r="D11" t="n">
-        <v>3.531118992040771</v>
+        <v>2.423455854261804</v>
       </c>
       <c r="E11" t="n">
-        <v>2.873923839852901</v>
+        <v>1.62935833255668</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6571951521878702</v>
+        <v>-0.7940975217051247</v>
       </c>
       <c r="G11" t="n">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="H11" t="n">
-        <v>93.19352266699252</v>
+        <v>76.61905569577755</v>
       </c>
       <c r="I11" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="J11" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K11" t="n">
-        <v>266.1636854208977</v>
+        <v>150.5933878792192</v>
       </c>
       <c r="L11" t="n">
-        <v>15.21080794096981</v>
+        <v>12.54349436690741</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.7346064302309507</v>
+        <v>0.8919210211309782</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.746268656716418</v>
+        <v>0.3380281690140845</v>
       </c>
       <c r="R11" t="n">
-        <v>0.191727244285218</v>
+        <v>0.3344407773294211</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9715583333234152</v>
+        <v>0.9397503406859061</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>493</v>
+        <v>932</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>673</v>
+        <v>1098</v>
       </c>
       <c r="B12" t="n">
-        <v>716</v>
+        <v>1124</v>
       </c>
       <c r="C12" t="n">
-        <v>991</v>
+        <v>1169</v>
       </c>
       <c r="D12" t="n">
-        <v>2.562039325533692</v>
+        <v>2.138251823820516</v>
       </c>
       <c r="E12" t="n">
-        <v>1.904844173345822</v>
+        <v>1.344154302115391</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6571951521878702</v>
+        <v>-0.7940975217051247</v>
       </c>
       <c r="G12" t="n">
-        <v>318</v>
+        <v>71</v>
       </c>
       <c r="H12" t="n">
-        <v>109.9719664822875</v>
+        <v>25.93768154243025</v>
       </c>
       <c r="I12" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="J12" t="n">
-        <v>275</v>
+        <v>45</v>
       </c>
       <c r="K12" t="n">
-        <v>442.599997090757</v>
+        <v>93.7749515218042</v>
       </c>
       <c r="L12" t="n">
-        <v>11.03635652203897</v>
+        <v>11.06731515655852</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,24 +1466,24 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.8749350511314917</v>
+        <v>0.862941071733261</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.1563636363636364</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="R12" t="n">
-        <v>0.3448152380156068</v>
+        <v>0.2992786069140292</v>
       </c>
       <c r="S12" t="n">
-        <v>0.7905223347630296</v>
+        <v>0.9873464588838868</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>494</v>
+        <v>933</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>991</v>
+        <v>1844</v>
       </c>
       <c r="B13" t="n">
-        <v>1033</v>
+        <v>1872</v>
       </c>
       <c r="C13" t="n">
-        <v>1088</v>
+        <v>2040</v>
       </c>
       <c r="D13" t="n">
-        <v>1.703065740973125</v>
+        <v>3.249843052252443</v>
       </c>
       <c r="E13" t="n">
-        <v>1.045870588785255</v>
+        <v>2.455745530547318</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6571951521878702</v>
+        <v>-0.7940975217051247</v>
       </c>
       <c r="G13" t="n">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="H13" t="n">
-        <v>36.38806741682174</v>
+        <v>211.0848684773271</v>
       </c>
       <c r="I13" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="J13" t="n">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="K13" t="n">
-        <v>84.66898471774277</v>
+        <v>281.3875869011204</v>
       </c>
       <c r="L13" t="n">
-        <v>7.336203043618234</v>
+        <v>16.82076772621003</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.8148517575444</v>
+        <v>0.8658903246748406</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.7636363636363637</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2452809121772984</v>
+        <v>0.5628801549703473</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9664559871392766</v>
+        <v>0.9832531379027417</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>495</v>
+        <v>934</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1135</v>
+        <v>2086</v>
       </c>
       <c r="B14" t="n">
-        <v>1180</v>
+        <v>2115</v>
       </c>
       <c r="C14" t="n">
-        <v>1245</v>
+        <v>2166</v>
       </c>
       <c r="D14" t="n">
-        <v>2.25018014964693</v>
+        <v>2.634049680585417</v>
       </c>
       <c r="E14" t="n">
-        <v>1.643263962163507</v>
+        <v>1.839952158880292</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6069161874834227</v>
+        <v>-0.7940975217051247</v>
       </c>
       <c r="G14" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="H14" t="n">
-        <v>185.7614157919149</v>
+        <v>59.94439389133004</v>
       </c>
       <c r="I14" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="J14" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="K14" t="n">
-        <v>176.2891167752031</v>
+        <v>147.6597240799674</v>
       </c>
       <c r="L14" t="n">
-        <v>6.35520598792468</v>
+        <v>13.63350080112833</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.7538122031919965</v>
+        <v>0.7441016312481087</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="R14" t="n">
-        <v>0.3775245416337301</v>
+        <v>0.1446329654765872</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9701001830771426</v>
+        <v>0.9834791516335584</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>496</v>
+        <v>935</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>64</v>
+        <v>263</v>
       </c>
       <c r="B15" t="n">
-        <v>103</v>
+        <v>297</v>
       </c>
       <c r="C15" t="n">
-        <v>288</v>
+        <v>367</v>
       </c>
       <c r="D15" t="n">
-        <v>4.603881324135036</v>
+        <v>4.149509999471798</v>
       </c>
       <c r="E15" t="n">
-        <v>3.914950174003409</v>
+        <v>3.672097624353576</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6889311501316268</v>
+        <v>-0.4774123751182223</v>
       </c>
       <c r="G15" t="n">
-        <v>224</v>
+        <v>104</v>
       </c>
       <c r="H15" t="n">
-        <v>38.65098882205231</v>
+        <v>54.74074664482606</v>
       </c>
       <c r="I15" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J15" t="n">
-        <v>185</v>
+        <v>70</v>
       </c>
       <c r="K15" t="n">
-        <v>518.6615461292993</v>
+        <v>247.6380896317976</v>
       </c>
       <c r="L15" t="n">
-        <v>34.09989258454397</v>
+        <v>9.92669633418992</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.8376572464472186</v>
+        <v>0.8251270459780541</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.2108108108108108</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4137037724893316</v>
+        <v>0.2379302326317914</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8978890983162142</v>
+        <v>0.8089409192351812</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>497</v>
+        <v>936</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>517</v>
+        <v>2192</v>
       </c>
       <c r="B16" t="n">
-        <v>556</v>
+        <v>2219</v>
       </c>
       <c r="C16" t="n">
-        <v>639</v>
+        <v>2271</v>
       </c>
       <c r="D16" t="n">
-        <v>2.332937824748927</v>
+        <v>1.106164492217089</v>
       </c>
       <c r="E16" t="n">
-        <v>1.6440066746173</v>
+        <v>0.559986944689054</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6889311501316268</v>
+        <v>-0.5461775475280354</v>
       </c>
       <c r="G16" t="n">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="H16" t="n">
-        <v>70.57535680815874</v>
+        <v>48.86190288040734</v>
       </c>
       <c r="I16" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J16" t="n">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="K16" t="n">
-        <v>196.4771178676098</v>
+        <v>51.76604770408535</v>
       </c>
       <c r="L16" t="n">
-        <v>17.27953516380101</v>
+        <v>14.74951009843518</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.8359439931072484</v>
+        <v>0.7859695934314477</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.4698795180722892</v>
+        <v>0.5192307692307693</v>
       </c>
       <c r="R16" t="n">
-        <v>0.3592068016768998</v>
+        <v>0.163352965157201</v>
       </c>
       <c r="S16" t="n">
-        <v>0.8651321747823564</v>
+        <v>0.974666463305799</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>498</v>
+        <v>937</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>639</v>
+        <v>2271</v>
       </c>
       <c r="B17" t="n">
-        <v>683</v>
+        <v>2296</v>
       </c>
       <c r="C17" t="n">
-        <v>802</v>
+        <v>2372</v>
       </c>
       <c r="D17" t="n">
-        <v>2.4806465368727</v>
+        <v>0.4508117868825369</v>
       </c>
       <c r="E17" t="n">
-        <v>1.791715386741073</v>
+        <v>-0.09536576064549848</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6889311501316268</v>
+        <v>-0.5461775475280354</v>
       </c>
       <c r="G17" t="n">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="H17" t="n">
-        <v>82.34957240757137</v>
+        <v>24.04081445247266</v>
       </c>
       <c r="I17" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="J17" t="n">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="K17" t="n">
-        <v>231.2825664905952</v>
+        <v>22.67354988964403</v>
       </c>
       <c r="L17" t="n">
-        <v>18.37357970200775</v>
+        <v>6.011088811746671</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.8897155715108845</v>
+        <v>0.8518595246259456</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.3697478991596639</v>
+        <v>0.3289473684210527</v>
       </c>
       <c r="R17" t="n">
-        <v>0.2173074536018322</v>
+        <v>0.5191515875843231</v>
       </c>
       <c r="S17" t="n">
-        <v>0.8765991601091994</v>
+        <v>0.7708775103171832</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>499</v>
+        <v>938</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>802</v>
+        <v>2625</v>
       </c>
       <c r="B18" t="n">
-        <v>846</v>
+        <v>2651</v>
       </c>
       <c r="C18" t="n">
-        <v>905</v>
+        <v>2754</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8190966849061508</v>
+        <v>1.861785728668407</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1301655347745241</v>
+        <v>1.315608181140372</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6889311501316268</v>
+        <v>-0.5461775475280354</v>
       </c>
       <c r="G18" t="n">
+        <v>129</v>
+      </c>
+      <c r="H18" t="n">
+        <v>26.11549277947188</v>
+      </c>
+      <c r="I18" t="n">
+        <v>26</v>
+      </c>
+      <c r="J18" t="n">
         <v>103</v>
       </c>
-      <c r="H18" t="n">
-        <v>35.55515259845936</v>
-      </c>
-      <c r="I18" t="n">
-        <v>44</v>
-      </c>
-      <c r="J18" t="n">
-        <v>59</v>
-      </c>
       <c r="K18" t="n">
-        <v>57.37489625612691</v>
+        <v>146.5867166090543</v>
       </c>
       <c r="L18" t="n">
-        <v>6.06686119931717</v>
+        <v>24.82490407107367</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.7765111971240355</v>
+        <v>0.8829980010715475</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7457627118644068</v>
+        <v>0.2524271844660194</v>
       </c>
       <c r="R18" t="n">
-        <v>0.208234716364028</v>
+        <v>0.3854697025812146</v>
       </c>
       <c r="S18" t="n">
-        <v>0.8856140823731233</v>
+        <v>0.9439314116677117</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>500</v>
+        <v>939</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>905</v>
+        <v>2855</v>
       </c>
       <c r="B19" t="n">
-        <v>947</v>
+        <v>2876</v>
       </c>
       <c r="C19" t="n">
-        <v>1006</v>
+        <v>2998</v>
       </c>
       <c r="D19" t="n">
-        <v>1.102676742457863</v>
+        <v>3.567003539709279</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4137455923262363</v>
+        <v>3.020825992181243</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6889311501316268</v>
+        <v>-0.5461775475280354</v>
       </c>
       <c r="G19" t="n">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="H19" t="n">
-        <v>49.13319921784228</v>
+        <v>139.239658781687</v>
       </c>
       <c r="I19" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="J19" t="n">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="K19" t="n">
-        <v>78.41283417582032</v>
+        <v>305.2669882919728</v>
       </c>
       <c r="L19" t="n">
-        <v>8.167273616756919</v>
+        <v>47.56214387667289</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.6586961548581381</v>
+        <v>0.8649257117523079</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.711864406779661</v>
+        <v>0.1721311475409836</v>
       </c>
       <c r="R19" t="n">
-        <v>0.06875763593211955</v>
+        <v>0.4239079234839862</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9505534547968182</v>
+        <v>0.9547898842171658</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>501</v>
+        <v>940</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1156</v>
+        <v>224</v>
       </c>
       <c r="B20" t="n">
-        <v>1211</v>
+        <v>256</v>
       </c>
       <c r="C20" t="n">
-        <v>1371</v>
+        <v>353</v>
       </c>
       <c r="D20" t="n">
-        <v>3.182103542590518</v>
+        <v>3.24510973398361</v>
       </c>
       <c r="E20" t="n">
-        <v>2.493172392458891</v>
+        <v>2.596998048993231</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6889311501316268</v>
+        <v>-0.6481116849903794</v>
       </c>
       <c r="G20" t="n">
-        <v>215</v>
+        <v>129</v>
       </c>
       <c r="H20" t="n">
-        <v>97.79151749961511</v>
+        <v>56.17047213327135</v>
       </c>
       <c r="I20" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="J20" t="n">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="K20" t="n">
-        <v>331.2614487469531</v>
+        <v>258.3337668183346</v>
       </c>
       <c r="L20" t="n">
-        <v>23.56911079058276</v>
+        <v>13.80713196909873</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.8993032386765266</v>
+        <v>0.8917137571677419</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.34375</v>
+        <v>0.3298969072164948</v>
       </c>
       <c r="R20" t="n">
-        <v>0.4017846926766788</v>
+        <v>0.1631734053602012</v>
       </c>
       <c r="S20" t="n">
-        <v>0.9706994596729218</v>
+        <v>0.9466667964351302</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>502</v>
+        <v>941</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="B21" t="n">
-        <v>17</v>
+        <v>384</v>
       </c>
       <c r="C21" t="n">
-        <v>94</v>
+        <v>430</v>
       </c>
       <c r="D21" t="n">
-        <v>1.182145065553438</v>
+        <v>3.556063174703011</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5787923724318034</v>
+        <v>2.907951489712632</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.6033526931216345</v>
+        <v>-0.6481116849903794</v>
       </c>
       <c r="G21" t="n">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="H21" t="n">
-        <v>26.48719670755285</v>
+        <v>143.8278565098022</v>
       </c>
       <c r="I21" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J21" t="n">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="K21" t="n">
-        <v>81.66212528482134</v>
+        <v>190.8709493941224</v>
       </c>
       <c r="L21" t="n">
-        <v>9.50457705568634</v>
+        <v>15.13016124829283</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.7346490349419744</v>
+        <v>0.7506829882983014</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.2207792207792208</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1893475297943137</v>
+        <v>0.2796436561744938</v>
       </c>
       <c r="S21" t="n">
-        <v>0.2859077683857946</v>
+        <v>0.9410294731206322</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>503</v>
+        <v>942</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>305</v>
+        <v>430</v>
       </c>
       <c r="B22" t="n">
-        <v>377</v>
+        <v>458</v>
       </c>
       <c r="C22" t="n">
-        <v>517</v>
+        <v>537</v>
       </c>
       <c r="D22" t="n">
-        <v>4.076147765804314</v>
+        <v>3.51301531814377</v>
       </c>
       <c r="E22" t="n">
-        <v>3.472795072682679</v>
+        <v>2.864903633153391</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.6033526931216345</v>
+        <v>-0.6481116849903794</v>
       </c>
       <c r="G22" t="n">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="H22" t="n">
-        <v>138.9251062689861</v>
+        <v>27.63184230341454</v>
       </c>
       <c r="I22" t="n">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="J22" t="n">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="K22" t="n">
-        <v>542.7005202901342</v>
+        <v>222.9701274732651</v>
       </c>
       <c r="L22" t="n">
-        <v>32.77267880174517</v>
+        <v>14.94700336297514</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,24 +2326,24 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.8190112937190803</v>
+        <v>0.8985691080362638</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.5142857142857142</v>
+        <v>0.3544303797468354</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2156447654413903</v>
+        <v>0.3393756206445686</v>
       </c>
       <c r="S22" t="n">
-        <v>0.9169764481300828</v>
+        <v>0.9931147499251977</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>504</v>
+        <v>943</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>605</v>
+        <v>745</v>
       </c>
       <c r="B23" t="n">
-        <v>640</v>
+        <v>775</v>
       </c>
       <c r="C23" t="n">
-        <v>755</v>
+        <v>999</v>
       </c>
       <c r="D23" t="n">
-        <v>1.60571444450398</v>
+        <v>2.626264819773224</v>
       </c>
       <c r="E23" t="n">
-        <v>1.002361751382346</v>
+        <v>1.978153134782844</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.6033526931216345</v>
+        <v>-0.6481116849903794</v>
       </c>
       <c r="G23" t="n">
-        <v>150</v>
+        <v>254</v>
       </c>
       <c r="H23" t="n">
-        <v>70.02269704207913</v>
+        <v>23.3920554814689</v>
       </c>
       <c r="I23" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J23" t="n">
-        <v>115</v>
+        <v>224</v>
       </c>
       <c r="K23" t="n">
-        <v>151.653061483633</v>
+        <v>292.3009040058813</v>
       </c>
       <c r="L23" t="n">
-        <v>12.91012170327143</v>
+        <v>11.17410131702909</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,24 +2412,24 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.8539896661779371</v>
+        <v>0.7311512330458692</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.3043478260869565</v>
+        <v>0.1339285714285714</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1179126705376541</v>
+        <v>0.5361310539214492</v>
       </c>
       <c r="S23" t="n">
-        <v>0.9395606580829942</v>
+        <v>0.6817884129129879</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>505</v>
+        <v>944</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>755</v>
+        <v>999</v>
       </c>
       <c r="B24" t="n">
-        <v>800</v>
+        <v>1029</v>
       </c>
       <c r="C24" t="n">
-        <v>1087</v>
+        <v>1095</v>
       </c>
       <c r="D24" t="n">
-        <v>3.936027770643857</v>
+        <v>1.905272779364061</v>
       </c>
       <c r="E24" t="n">
-        <v>3.332675077522223</v>
+        <v>1.257161094373682</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.6033526931216345</v>
+        <v>-0.6481116849903794</v>
       </c>
       <c r="G24" t="n">
-        <v>332</v>
+        <v>96</v>
       </c>
       <c r="H24" t="n">
-        <v>97.1050662125773</v>
+        <v>31.68723704902072</v>
       </c>
       <c r="I24" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J24" t="n">
-        <v>287</v>
+        <v>66</v>
       </c>
       <c r="K24" t="n">
-        <v>479.3648660842995</v>
+        <v>85.33682604745742</v>
       </c>
       <c r="L24" t="n">
-        <v>31.64609854535214</v>
+        <v>8.10646013794983</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.8889306316049834</v>
+        <v>0.8722916612670241</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.156794425087108</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="R24" t="n">
-        <v>0.3961857824913207</v>
+        <v>0.2892974797537421</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9716533575262485</v>
+        <v>0.9087670620335269</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>506</v>
+        <v>945</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1069</v>
+        <v>1535</v>
       </c>
       <c r="B25" t="n">
-        <v>1092</v>
+        <v>1560</v>
       </c>
       <c r="C25" t="n">
-        <v>1267</v>
+        <v>1628</v>
       </c>
       <c r="D25" t="n">
-        <v>2.452525751380391</v>
+        <v>1.313369300933678</v>
       </c>
       <c r="E25" t="n">
-        <v>1.853052360013572</v>
+        <v>0.6652576159432981</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.599473391366819</v>
+        <v>-0.6481116849903794</v>
       </c>
       <c r="G25" t="n">
-        <v>198</v>
+        <v>93</v>
       </c>
       <c r="H25" t="n">
-        <v>30.31939440966335</v>
+        <v>29.10381587158713</v>
       </c>
       <c r="I25" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J25" t="n">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="K25" t="n">
-        <v>224.4920511368481</v>
+        <v>59.3054961196658</v>
       </c>
       <c r="L25" t="n">
-        <v>26.41410700094175</v>
+        <v>5.588058570794024</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.812973423106914</v>
+        <v>0.8426405214360854</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.1314285714285714</v>
+        <v>0.3676470588235294</v>
       </c>
       <c r="R25" t="n">
-        <v>0.5682156080714952</v>
+        <v>0.3119967922536379</v>
       </c>
       <c r="S25" t="n">
-        <v>0.9851584847324573</v>
+        <v>0.6415286953258987</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>507</v>
+        <v>946</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1267</v>
+        <v>1628</v>
       </c>
       <c r="B26" t="n">
-        <v>1322</v>
+        <v>1658</v>
       </c>
       <c r="C26" t="n">
-        <v>1396</v>
+        <v>1722</v>
       </c>
       <c r="D26" t="n">
-        <v>2.757415319549209</v>
+        <v>2.467367205541206</v>
       </c>
       <c r="E26" t="n">
-        <v>2.15794192818239</v>
+        <v>1.819255520550826</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.599473391366819</v>
+        <v>-0.6481116849903794</v>
       </c>
       <c r="G26" t="n">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="H26" t="n">
-        <v>45.01992056476274</v>
+        <v>60.48562658182777</v>
       </c>
       <c r="I26" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="J26" t="n">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="K26" t="n">
-        <v>228.1290854583518</v>
+        <v>119.4882447031261</v>
       </c>
       <c r="L26" t="n">
-        <v>29.6978179558825</v>
+        <v>10.49803162782841</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.8126076964634871</v>
+        <v>0.8476453443937378</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.7432432432432432</v>
+        <v>0.46875</v>
       </c>
       <c r="R26" t="n">
-        <v>0.5211129264567532</v>
+        <v>0.3003308132154971</v>
       </c>
       <c r="S26" t="n">
-        <v>0.9904504884071277</v>
+        <v>0.9482967868162562</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>508</v>
+        <v>947</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1396</v>
+        <v>1133</v>
       </c>
       <c r="B27" t="n">
-        <v>1466</v>
+        <v>1174</v>
       </c>
       <c r="C27" t="n">
-        <v>1647</v>
+        <v>1240</v>
       </c>
       <c r="D27" t="n">
-        <v>3.730571681175267</v>
+        <v>2.283766101761836</v>
       </c>
       <c r="E27" t="n">
-        <v>3.131098289808448</v>
+        <v>1.680834749350645</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.599473391366819</v>
+        <v>-0.6029313524111906</v>
       </c>
       <c r="G27" t="n">
-        <v>251</v>
+        <v>107</v>
       </c>
       <c r="H27" t="n">
-        <v>222.4154363638486</v>
+        <v>53.48954893697851</v>
       </c>
       <c r="I27" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="J27" t="n">
-        <v>181</v>
+        <v>66</v>
       </c>
       <c r="K27" t="n">
-        <v>724.8817012096654</v>
+        <v>168.7985828958259</v>
       </c>
       <c r="L27" t="n">
-        <v>40.17887253815138</v>
+        <v>6.311252693953076</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.7708149924824574</v>
+        <v>0.8031888190564487</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.3867403314917127</v>
+        <v>0.6212121212121212</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1441803894420206</v>
+        <v>0.6154984933414321</v>
       </c>
       <c r="S27" t="n">
-        <v>0.8239880549081918</v>
+        <v>0.8879742855139963</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>509</v>
+        <v>948</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1551</v>
+        <v>69</v>
       </c>
       <c r="B28" t="n">
-        <v>1642</v>
+        <v>101</v>
       </c>
       <c r="C28" t="n">
-        <v>1867</v>
+        <v>285</v>
       </c>
       <c r="D28" t="n">
-        <v>2.462973404714928</v>
+        <v>4.742571134580482</v>
       </c>
       <c r="E28" t="n">
-        <v>1.789649551415207</v>
+        <v>4.06239392048543</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.6733238532997214</v>
+        <v>-0.6801772140950515</v>
       </c>
       <c r="G28" t="n">
-        <v>316</v>
+        <v>216</v>
       </c>
       <c r="H28" t="n">
-        <v>70.30663844979949</v>
+        <v>36.93359067812342</v>
       </c>
       <c r="I28" t="n">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="J28" t="n">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="K28" t="n">
-        <v>309.3321382190329</v>
+        <v>501.651779466839</v>
       </c>
       <c r="L28" t="n">
-        <v>7.223454210163132</v>
+        <v>33.66889642455134</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.67549421289186</v>
+        <v>0.8176417891971213</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.4044444444444444</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="R28" t="n">
-        <v>0.4862831766934346</v>
+        <v>0.4110604563437208</v>
       </c>
       <c r="S28" t="n">
-        <v>0.6426845890034298</v>
+        <v>0.8888691921478031</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>510</v>
+        <v>949</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1867</v>
+        <v>522</v>
       </c>
       <c r="B29" t="n">
-        <v>1959</v>
+        <v>552</v>
       </c>
       <c r="C29" t="n">
-        <v>2082</v>
+        <v>644</v>
       </c>
       <c r="D29" t="n">
-        <v>3.663413028864719</v>
+        <v>2.600749541505798</v>
       </c>
       <c r="E29" t="n">
-        <v>2.990089175564997</v>
+        <v>1.920572327410746</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.6733238532997214</v>
+        <v>-0.6801772140950515</v>
       </c>
       <c r="G29" t="n">
-        <v>215</v>
+        <v>122</v>
       </c>
       <c r="H29" t="n">
-        <v>146.232053618387</v>
+        <v>84.97531266456429</v>
       </c>
       <c r="I29" t="n">
+        <v>30</v>
+      </c>
+      <c r="J29" t="n">
         <v>92</v>
       </c>
-      <c r="J29" t="n">
-        <v>123</v>
-      </c>
       <c r="K29" t="n">
-        <v>463.1305777907988</v>
+        <v>200.289392798301</v>
       </c>
       <c r="L29" t="n">
-        <v>10.74412586683297</v>
+        <v>18.46347992562137</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,24 +2928,24 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.7617509011884057</v>
+        <v>0.8869371080240199</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.7479674796747967</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="R29" t="n">
-        <v>0.3013777951399066</v>
+        <v>0.358991677688477</v>
       </c>
       <c r="S29" t="n">
-        <v>0.9456042855556356</v>
+        <v>0.858914592787513</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>511</v>
+        <v>950</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2082</v>
+        <v>644</v>
       </c>
       <c r="B30" t="n">
-        <v>2176</v>
+        <v>676</v>
       </c>
       <c r="C30" t="n">
-        <v>2388</v>
+        <v>795</v>
       </c>
       <c r="D30" t="n">
-        <v>2.417893160803156</v>
+        <v>2.541434639495237</v>
       </c>
       <c r="E30" t="n">
-        <v>1.744569307503434</v>
+        <v>1.861257425400186</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.6733238532997214</v>
+        <v>-0.6801772140950515</v>
       </c>
       <c r="G30" t="n">
-        <v>306</v>
+        <v>151</v>
       </c>
       <c r="H30" t="n">
-        <v>53.31730576114251</v>
+        <v>62.08504461101802</v>
       </c>
       <c r="I30" t="n">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="J30" t="n">
-        <v>212</v>
+        <v>119</v>
       </c>
       <c r="K30" t="n">
-        <v>375.9900573483425</v>
+        <v>222.3676512028325</v>
       </c>
       <c r="L30" t="n">
-        <v>7.091242032371728</v>
+        <v>18.04238612743575</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,24 +3014,24 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.5572914040310354</v>
+        <v>0.8647677270857668</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.4433962264150944</v>
+        <v>0.2689075630252101</v>
       </c>
       <c r="R30" t="n">
-        <v>0.408489346511656</v>
+        <v>0.1314136346998008</v>
       </c>
       <c r="S30" t="n">
-        <v>0.3365198563237</v>
+        <v>0.8268602825790954</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>512</v>
+        <v>951</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2192</v>
+        <v>795</v>
       </c>
       <c r="B31" t="n">
-        <v>2252</v>
+        <v>844</v>
       </c>
       <c r="C31" t="n">
-        <v>2435</v>
+        <v>913</v>
       </c>
       <c r="D31" t="n">
-        <v>3.676100789350968</v>
+        <v>0.8951730864525815</v>
       </c>
       <c r="E31" t="n">
-        <v>3.057722318881558</v>
+        <v>0.21499587235753</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.6183784704694097</v>
+        <v>-0.6801772140950515</v>
       </c>
       <c r="G31" t="n">
-        <v>243</v>
+        <v>118</v>
       </c>
       <c r="H31" t="n">
-        <v>106.8108099012593</v>
+        <v>28.11540916021295</v>
       </c>
       <c r="I31" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="J31" t="n">
-        <v>183</v>
+        <v>69</v>
       </c>
       <c r="K31" t="n">
-        <v>474.2071893422654</v>
+        <v>62.10461773485121</v>
       </c>
       <c r="L31" t="n">
-        <v>13.21069857252092</v>
+        <v>6.355094963163687</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.9099398359601331</v>
+        <v>0.718966434173808</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.3278688524590164</v>
+        <v>0.7101449275362319</v>
       </c>
       <c r="R31" t="n">
-        <v>0.298236886521556</v>
+        <v>0.2830337163769112</v>
       </c>
       <c r="S31" t="n">
-        <v>0.7954467899505153</v>
+        <v>0.7818843283420501</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>513</v>
+        <v>952</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2585</v>
+        <v>913</v>
       </c>
       <c r="B32" t="n">
-        <v>2661</v>
+        <v>948</v>
       </c>
       <c r="C32" t="n">
-        <v>2998</v>
+        <v>1013</v>
       </c>
       <c r="D32" t="n">
-        <v>3.662609563370144</v>
+        <v>1.099285954923284</v>
       </c>
       <c r="E32" t="n">
-        <v>3.044231092900734</v>
+        <v>0.4191087408282324</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.6183784704694097</v>
+        <v>-0.6801772140950515</v>
       </c>
       <c r="G32" t="n">
-        <v>413</v>
+        <v>100</v>
       </c>
       <c r="H32" t="n">
-        <v>113.4987711449862</v>
+        <v>52.35377331074062</v>
       </c>
       <c r="I32" t="n">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="J32" t="n">
-        <v>337</v>
+        <v>65</v>
       </c>
       <c r="K32" t="n">
-        <v>648.0988818765882</v>
+        <v>77.64910632531127</v>
       </c>
       <c r="L32" t="n">
-        <v>13.16221553845322</v>
+        <v>7.804151779064468</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,24 +3186,24 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.7450446052108267</v>
+        <v>0.7217959118945504</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.2255192878338279</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="R32" t="n">
-        <v>0.5609841146634558</v>
+        <v>0.1258229436431568</v>
       </c>
       <c r="S32" t="n">
-        <v>0.6592619365330368</v>
+        <v>0.8107284195339354</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n16</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>514</v>
+        <v>953</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>624</v>
+        <v>1013</v>
       </c>
       <c r="B33" t="n">
-        <v>657</v>
+        <v>1067</v>
       </c>
       <c r="C33" t="n">
-        <v>764</v>
+        <v>1163</v>
       </c>
       <c r="D33" t="n">
-        <v>1.941523469595775</v>
+        <v>2.821011383154492</v>
       </c>
       <c r="E33" t="n">
-        <v>1.281515805959195</v>
+        <v>2.14083416905944</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.6600076636365796</v>
+        <v>-0.6801772140950515</v>
       </c>
       <c r="G33" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="H33" t="n">
-        <v>32.95847888026003</v>
+        <v>70.02639172300655</v>
       </c>
       <c r="I33" t="n">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="J33" t="n">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="K33" t="n">
-        <v>151.5152914577562</v>
+        <v>209.0543033412491</v>
       </c>
       <c r="L33" t="n">
-        <v>7.275460562881166</v>
+        <v>20.02718301458027</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,24 +3272,24 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.7102484579350472</v>
+        <v>0.8013377058339368</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.308411214953271</v>
+        <v>0.5625</v>
       </c>
       <c r="R33" t="n">
-        <v>0.4655798862724963</v>
+        <v>0.1808547304367517</v>
       </c>
       <c r="S33" t="n">
-        <v>0.4595693298108164</v>
+        <v>0.9290372870109048</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>515</v>
+        <v>954</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>952</v>
+        <v>1238</v>
       </c>
       <c r="B34" t="n">
-        <v>992</v>
+        <v>1257</v>
       </c>
       <c r="C34" t="n">
-        <v>1087</v>
+        <v>1366</v>
       </c>
       <c r="D34" t="n">
-        <v>1.836738235762633</v>
+        <v>2.748813649171459</v>
       </c>
       <c r="E34" t="n">
-        <v>1.176730572126053</v>
+        <v>2.068636435076407</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.6600076636365796</v>
+        <v>-0.6801772140950515</v>
       </c>
       <c r="G34" t="n">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H34" t="n">
-        <v>39.82796652659238</v>
+        <v>15.75426068786305</v>
       </c>
       <c r="I34" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J34" t="n">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="K34" t="n">
-        <v>130.7297630677938</v>
+        <v>183.3381446819211</v>
       </c>
       <c r="L34" t="n">
-        <v>6.882799413910337</v>
+        <v>19.5146302328544</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,24 +3358,24 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.843456195462533</v>
+        <v>0.8137461468712365</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.1743119266055046</v>
       </c>
       <c r="R34" t="n">
-        <v>0.2453302040952551</v>
+        <v>0.4657209057480684</v>
       </c>
       <c r="S34" t="n">
-        <v>0.7940223123466036</v>
+        <v>0.9494837058095786</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>516</v>
+        <v>955</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>856</v>
+        <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>896</v>
+        <v>16</v>
       </c>
       <c r="C35" t="n">
-        <v>947</v>
+        <v>46</v>
       </c>
       <c r="D35" t="n">
-        <v>2.373092390559293</v>
+        <v>1.249595137167883</v>
       </c>
       <c r="E35" t="n">
-        <v>1.656408436183368</v>
+        <v>0.6432170884881628</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.7166839543759249</v>
+        <v>-0.60637804867972</v>
       </c>
       <c r="G35" t="n">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="H35" t="n">
-        <v>221.4933270545234</v>
+        <v>27.63759167460011</v>
       </c>
       <c r="I35" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="J35" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="K35" t="n">
-        <v>146.1831592791098</v>
+        <v>43.16984522154442</v>
       </c>
       <c r="L35" t="n">
-        <v>6.373412063512661</v>
+        <v>9.552085892293098</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,24 +3444,24 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.6659292997938315</v>
+        <v>0.7274395983665581</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.7843137254901961</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="R35" t="n">
-        <v>0.1442121566286232</v>
+        <v>0.1000814782370048</v>
       </c>
       <c r="S35" t="n">
-        <v>0.9963516851383232</v>
+        <v>0.9833047520821827</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>517</v>
+        <v>956</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>947</v>
+        <v>303</v>
       </c>
       <c r="B36" t="n">
-        <v>985</v>
+        <v>374</v>
       </c>
       <c r="C36" t="n">
-        <v>1144</v>
+        <v>510</v>
       </c>
       <c r="D36" t="n">
-        <v>2.174761471711272</v>
+        <v>4.178858796391265</v>
       </c>
       <c r="E36" t="n">
-        <v>1.458077517335347</v>
+        <v>3.572480747711545</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.7166839543759249</v>
+        <v>-0.60637804867972</v>
       </c>
       <c r="G36" t="n">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="H36" t="n">
-        <v>35.5080265908781</v>
+        <v>136.4609991866031</v>
       </c>
       <c r="I36" t="n">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="J36" t="n">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="K36" t="n">
-        <v>253.4600434762737</v>
+        <v>542.1148593200644</v>
       </c>
       <c r="L36" t="n">
-        <v>5.840754896104351</v>
+        <v>31.94380081004677</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,24 +3530,24 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.810641556932901</v>
+        <v>0.6964456218156631</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.2389937106918239</v>
+        <v>0.5220588235294118</v>
       </c>
       <c r="R36" t="n">
-        <v>0.2704734023421287</v>
+        <v>0.1729374403234695</v>
       </c>
       <c r="S36" t="n">
-        <v>0.6950830826489584</v>
+        <v>0.8984614060804961</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>518</v>
+        <v>957</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1817</v>
+        <v>609</v>
       </c>
       <c r="B37" t="n">
-        <v>1847</v>
+        <v>639</v>
       </c>
       <c r="C37" t="n">
-        <v>1981</v>
+        <v>762</v>
       </c>
       <c r="D37" t="n">
-        <v>1.906343844539471</v>
+        <v>1.791869190340384</v>
       </c>
       <c r="E37" t="n">
-        <v>1.486888961564932</v>
+        <v>1.185491141660664</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.4194548829745393</v>
+        <v>-0.60637804867972</v>
       </c>
       <c r="G37" t="n">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="H37" t="n">
-        <v>33.82709204614684</v>
+        <v>63.26082133420414</v>
       </c>
       <c r="I37" t="n">
         <v>30</v>
       </c>
       <c r="J37" t="n">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="K37" t="n">
-        <v>135.4305200561747</v>
+        <v>154.997864969647</v>
       </c>
       <c r="L37" t="n">
-        <v>8.305387715804487</v>
+        <v>13.69730715556193</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,24 +3616,24 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.8539819007341563</v>
+        <v>0.9191688416032227</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.2238805970149254</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="R37" t="n">
-        <v>0.3305879688118292</v>
+        <v>0.1949233093071186</v>
       </c>
       <c r="S37" t="n">
-        <v>0.8703006508794172</v>
+        <v>0.8761025526188913</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U37" t="n">
-        <v>519</v>
+        <v>958</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1771</v>
+        <v>818</v>
       </c>
       <c r="B38" t="n">
-        <v>1815</v>
+        <v>834</v>
       </c>
       <c r="C38" t="n">
-        <v>1992</v>
+        <v>1096</v>
       </c>
       <c r="D38" t="n">
-        <v>4.946823447231866</v>
+        <v>3.325378954472584</v>
       </c>
       <c r="E38" t="n">
-        <v>4.455894111691952</v>
+        <v>2.719000905792864</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4909293355399137</v>
+        <v>-0.60637804867972</v>
       </c>
       <c r="G38" t="n">
-        <v>221</v>
+        <v>278</v>
       </c>
       <c r="H38" t="n">
-        <v>163.1464284173226</v>
+        <v>16.49179945175331</v>
       </c>
       <c r="I38" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="J38" t="n">
-        <v>177</v>
+        <v>262</v>
       </c>
       <c r="K38" t="n">
-        <v>648.5977320727181</v>
+        <v>318.4927950494088</v>
       </c>
       <c r="L38" t="n">
-        <v>42.81154848961977</v>
+        <v>25.41967750413742</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,24 +3702,24 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.917845974196845</v>
+        <v>0.7625515285700248</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.2485875706214689</v>
+        <v>0.06106870229007633</v>
       </c>
       <c r="R38" t="n">
-        <v>0.3010279224959533</v>
+        <v>0.6584489854630633</v>
       </c>
       <c r="S38" t="n">
-        <v>0.9779597458283993</v>
+        <v>0.9624146496877618</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U38" t="n">
-        <v>520</v>
+        <v>959</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1646</v>
+        <v>1071</v>
       </c>
       <c r="B39" t="n">
-        <v>1683</v>
+        <v>1099</v>
       </c>
       <c r="C39" t="n">
-        <v>1773</v>
+        <v>1266</v>
       </c>
       <c r="D39" t="n">
-        <v>1.866415402093023</v>
+        <v>2.566904897888964</v>
       </c>
       <c r="E39" t="n">
-        <v>1.347287461718302</v>
+        <v>1.964382542419526</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.5191279403747213</v>
+        <v>-0.6025223554694382</v>
       </c>
       <c r="G39" t="n">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="H39" t="n">
-        <v>32.14442131323858</v>
+        <v>150.44864693698</v>
       </c>
       <c r="I39" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J39" t="n">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="K39" t="n">
-        <v>113.0016389702457</v>
+        <v>220.9437531193317</v>
       </c>
       <c r="L39" t="n">
-        <v>9.502734038599289</v>
+        <v>27.45411389690544</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,24 +3788,24 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.8507825007927579</v>
+        <v>0.8795233730391985</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.4111111111111111</v>
+        <v>0.1676646706586826</v>
       </c>
       <c r="R39" t="n">
-        <v>0.5247582308784149</v>
+        <v>0.5964245215195201</v>
       </c>
       <c r="S39" t="n">
-        <v>0.9054879875483186</v>
+        <v>0.9915029676218059</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U39" t="n">
-        <v>521</v>
+        <v>960</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>92</v>
+        <v>1266</v>
       </c>
       <c r="B40" t="n">
-        <v>170</v>
+        <v>1317</v>
       </c>
       <c r="C40" t="n">
-        <v>292</v>
+        <v>1401</v>
       </c>
       <c r="D40" t="n">
-        <v>3.132731067824967</v>
+        <v>2.808351826177268</v>
       </c>
       <c r="E40" t="n">
-        <v>2.561098444530946</v>
+        <v>2.20582947070783</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5716326232940203</v>
+        <v>-0.6025223554694382</v>
       </c>
       <c r="G40" t="n">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="H40" t="n">
-        <v>67.63331420306645</v>
+        <v>45.22331773229666</v>
       </c>
       <c r="I40" t="n">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="J40" t="n">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="K40" t="n">
-        <v>311.5167322237847</v>
+        <v>236.2149996749858</v>
       </c>
       <c r="L40" t="n">
-        <v>7.612098970607969</v>
+        <v>30.03648906582446</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3874,24 +3874,24 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.7285798969197568</v>
+        <v>0.8401760772600327</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.639344262295082</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="R40" t="n">
-        <v>0.1745161466403737</v>
+        <v>0.6994905065903375</v>
       </c>
       <c r="S40" t="n">
-        <v>0.7032631858164291</v>
+        <v>0.988191216402469</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U40" t="n">
-        <v>522</v>
+        <v>961</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3911,40 +3911,40 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1022</v>
+        <v>1497</v>
       </c>
       <c r="B41" t="n">
-        <v>1081</v>
+        <v>1519</v>
       </c>
       <c r="C41" t="n">
-        <v>1183</v>
+        <v>1653</v>
       </c>
       <c r="D41" t="n">
-        <v>2.450968262239093</v>
+        <v>3.736179891065024</v>
       </c>
       <c r="E41" t="n">
-        <v>1.827010111044889</v>
+        <v>3.133657535595586</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.6239581511942043</v>
+        <v>-0.6025223554694382</v>
       </c>
       <c r="G41" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H41" t="n">
-        <v>108.8393426310556</v>
+        <v>21.14675882347751</v>
       </c>
       <c r="I41" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="J41" t="n">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="K41" t="n">
-        <v>215.2971468948283</v>
+        <v>438.5340367216683</v>
       </c>
       <c r="L41" t="n">
-        <v>7.5526890760379</v>
+        <v>39.95999553897923</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3960,24 +3960,24 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.7619244139310808</v>
+        <v>0.8113706084887856</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.5784313725490197</v>
+        <v>0.1641791044776119</v>
       </c>
       <c r="R41" t="n">
-        <v>0.2545850587295544</v>
+        <v>0.2567958642824327</v>
       </c>
       <c r="S41" t="n">
-        <v>0.7433871461363561</v>
+        <v>0.9424386813358924</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U41" t="n">
-        <v>523</v>
+        <v>962</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -3997,40 +3997,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2530</v>
+        <v>258</v>
       </c>
       <c r="B42" t="n">
-        <v>2573</v>
+        <v>299</v>
       </c>
       <c r="C42" t="n">
-        <v>2673</v>
+        <v>374</v>
       </c>
       <c r="D42" t="n">
-        <v>3.19526693506551</v>
+        <v>2.162601746293608</v>
       </c>
       <c r="E42" t="n">
-        <v>2.68611704970508</v>
+        <v>1.639918460201867</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.5091498853604298</v>
+        <v>-0.5226832860917411</v>
       </c>
       <c r="G42" t="n">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="H42" t="n">
-        <v>63.0255195576965</v>
+        <v>163.9323961775922</v>
       </c>
       <c r="I42" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J42" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K42" t="n">
-        <v>236.379920719293</v>
+        <v>165.578212161364</v>
       </c>
       <c r="L42" t="n">
-        <v>15.9940136817759</v>
+        <v>7.831189587040873</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4046,24 +4046,24 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.9007067731736937</v>
+        <v>0.7260362902605051</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.43</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="R42" t="n">
-        <v>0.2190651152556088</v>
+        <v>0.1712366300271099</v>
       </c>
       <c r="S42" t="n">
-        <v>0.9725489563145894</v>
+        <v>0.8438078066057531</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U42" t="n">
-        <v>524</v>
+        <v>963</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4083,40 +4083,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>951</v>
+        <v>1602</v>
       </c>
       <c r="B43" t="n">
-        <v>1004</v>
+        <v>1635</v>
       </c>
       <c r="C43" t="n">
-        <v>1073</v>
+        <v>1860</v>
       </c>
       <c r="D43" t="n">
-        <v>2.511767388390308</v>
+        <v>2.467390164780332</v>
       </c>
       <c r="E43" t="n">
-        <v>1.816687918378447</v>
+        <v>1.798693833921259</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.6950794700118614</v>
+        <v>-0.6686963308590732</v>
       </c>
       <c r="G43" t="n">
-        <v>122</v>
+        <v>258</v>
       </c>
       <c r="H43" t="n">
-        <v>37.48080552633405</v>
+        <v>62.09378326605588</v>
       </c>
       <c r="I43" t="n">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J43" t="n">
-        <v>69</v>
+        <v>225</v>
       </c>
       <c r="K43" t="n">
-        <v>219.2927363290559</v>
+        <v>246.0409387792371</v>
       </c>
       <c r="L43" t="n">
-        <v>8.066178461569626</v>
+        <v>7.217785165001335</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4132,24 +4132,24 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.7251512034268941</v>
+        <v>0.7804464903318965</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.7681159420289855</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4909382725330638</v>
+        <v>0.5252993004069428</v>
       </c>
       <c r="S43" t="n">
-        <v>0.7089696045727863</v>
+        <v>0.6192943854035613</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U43" t="n">
-        <v>525</v>
+        <v>964</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4169,40 +4169,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1782</v>
+        <v>550</v>
       </c>
       <c r="B44" t="n">
-        <v>1826</v>
+        <v>578</v>
       </c>
       <c r="C44" t="n">
-        <v>1960</v>
+        <v>622</v>
       </c>
       <c r="D44" t="n">
-        <v>2.853805348974181</v>
+        <v>4.127441849547653</v>
       </c>
       <c r="E44" t="n">
-        <v>2.158725878962319</v>
+        <v>3.453856102447574</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.6950794700118614</v>
+        <v>-0.6735857471000791</v>
       </c>
       <c r="G44" t="n">
-        <v>178</v>
+        <v>72</v>
       </c>
       <c r="H44" t="n">
-        <v>162.6317522670242</v>
+        <v>58.60174787142603</v>
       </c>
       <c r="I44" t="n">
+        <v>28</v>
+      </c>
+      <c r="J44" t="n">
         <v>44</v>
       </c>
-      <c r="J44" t="n">
-        <v>134</v>
-      </c>
       <c r="K44" t="n">
-        <v>346.2117985982514</v>
+        <v>198.6453963561949</v>
       </c>
       <c r="L44" t="n">
-        <v>9.164584007980087</v>
+        <v>15.34814163309486</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4218,24 +4218,24 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.7780139164552133</v>
+        <v>0.7424853208808302</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.3283582089552239</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="R44" t="n">
-        <v>0.1353034593783238</v>
+        <v>0.1669474275334025</v>
       </c>
       <c r="S44" t="n">
-        <v>0.7708367701658072</v>
+        <v>0.9906479621728542</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U44" t="n">
-        <v>526</v>
+        <v>965</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4255,40 +4255,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2465</v>
+        <v>622</v>
       </c>
       <c r="B45" t="n">
-        <v>2503</v>
+        <v>653</v>
       </c>
       <c r="C45" t="n">
-        <v>2571</v>
+        <v>764</v>
       </c>
       <c r="D45" t="n">
-        <v>2.574509010812188</v>
+        <v>2.266432660143274</v>
       </c>
       <c r="E45" t="n">
-        <v>1.879429540800327</v>
+        <v>1.592846913043195</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.6950794700118614</v>
+        <v>-0.6735857471000791</v>
       </c>
       <c r="G45" t="n">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="H45" t="n">
-        <v>66.17728026715304</v>
+        <v>19.68094093723266</v>
       </c>
       <c r="I45" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J45" t="n">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="K45" t="n">
-        <v>199.5159631997534</v>
+        <v>156.2789094008369</v>
       </c>
       <c r="L45" t="n">
-        <v>8.267664126907304</v>
+        <v>8.427866639372096</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4304,24 +4304,24 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.6540609177454233</v>
+        <v>0.6979207273927573</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.5588235294117647</v>
+        <v>0.2792792792792793</v>
       </c>
       <c r="R45" t="n">
-        <v>0.05301624245750712</v>
+        <v>0.4151395780469939</v>
       </c>
       <c r="S45" t="n">
-        <v>0.8937758871148898</v>
+        <v>0.4599767719911685</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U45" t="n">
-        <v>527</v>
+        <v>966</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4341,40 +4341,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2462</v>
+        <v>821</v>
       </c>
       <c r="B46" t="n">
-        <v>2507</v>
+        <v>872</v>
       </c>
       <c r="C46" t="n">
-        <v>2567</v>
+        <v>960</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7585741720146151</v>
+        <v>2.770287297577312</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2666178648750101</v>
+        <v>2.096701550477233</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.491956307139605</v>
+        <v>-0.6735857471000791</v>
       </c>
       <c r="G46" t="n">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="H46" t="n">
-        <v>67.81098607534659</v>
+        <v>71.01200198809499</v>
       </c>
       <c r="I46" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J46" t="n">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="K46" t="n">
-        <v>54.95456688888913</v>
+        <v>216.8523269794979</v>
       </c>
       <c r="L46" t="n">
-        <v>5.217342500705397</v>
+        <v>10.30148051928098</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4390,24 +4390,24 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.6781965923172575</v>
+        <v>0.8139937408543799</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.75</v>
+        <v>0.5795454545454546</v>
       </c>
       <c r="R46" t="n">
-        <v>0.184534098689014</v>
+        <v>0.3707262316201509</v>
       </c>
       <c r="S46" t="n">
-        <v>0.7010045193987503</v>
+        <v>0.8904965968805488</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U46" t="n">
-        <v>528</v>
+        <v>967</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4427,40 +4427,40 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2669</v>
+        <v>960</v>
       </c>
       <c r="B47" t="n">
-        <v>2716</v>
+        <v>992</v>
       </c>
       <c r="C47" t="n">
-        <v>2881</v>
+        <v>1093</v>
       </c>
       <c r="D47" t="n">
-        <v>4.014774600505627</v>
+        <v>2.06808526523506</v>
       </c>
       <c r="E47" t="n">
-        <v>3.522818293366021</v>
+        <v>1.394499518134981</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.491956307139605</v>
+        <v>-0.6735857471000791</v>
       </c>
       <c r="G47" t="n">
-        <v>212</v>
+        <v>133</v>
       </c>
       <c r="H47" t="n">
-        <v>324.1777981936862</v>
+        <v>31.50527664839581</v>
       </c>
       <c r="I47" t="n">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="J47" t="n">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="K47" t="n">
-        <v>682.0218480411281</v>
+        <v>128.9500497916103</v>
       </c>
       <c r="L47" t="n">
-        <v>27.61292821022513</v>
+        <v>7.690299879966314</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4476,24 +4476,24 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.66291425504659</v>
+        <v>0.8630343161671169</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.2848484848484849</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="R47" t="n">
-        <v>0.04969192786961626</v>
+        <v>0.359701236129698</v>
       </c>
       <c r="S47" t="n">
-        <v>0.9459912357794598</v>
+        <v>0.7960497137917473</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U47" t="n">
-        <v>529</v>
+        <v>968</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4513,40 +4513,40 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2881</v>
+        <v>2290</v>
       </c>
       <c r="B48" t="n">
-        <v>2907</v>
+        <v>2315</v>
       </c>
       <c r="C48" t="n">
-        <v>2998</v>
+        <v>2387</v>
       </c>
       <c r="D48" t="n">
-        <v>2.767012447073974</v>
+        <v>2.98887429204512</v>
       </c>
       <c r="E48" t="n">
-        <v>2.275056139934369</v>
+        <v>2.31528854494504</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.491956307139605</v>
+        <v>-0.6735857471000791</v>
       </c>
       <c r="G48" t="n">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="H48" t="n">
-        <v>29.65234939666652</v>
+        <v>24.41151806305788</v>
       </c>
       <c r="I48" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J48" t="n">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="K48" t="n">
-        <v>197.4048054714979</v>
+        <v>179.0064889191524</v>
       </c>
       <c r="L48" t="n">
-        <v>19.03103502952082</v>
+        <v>11.11430945122877</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4562,24 +4562,24 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.9151503921820242</v>
+        <v>0.8970748351399649</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="R48" t="n">
-        <v>0.4308995235863232</v>
+        <v>0.4617543400171706</v>
       </c>
       <c r="S48" t="n">
-        <v>0.9181826810717889</v>
+        <v>0.9858290782727884</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U48" t="n">
-        <v>530</v>
+        <v>969</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -4599,40 +4599,40 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1166</v>
+        <v>718</v>
       </c>
       <c r="B49" t="n">
-        <v>1224</v>
+        <v>781</v>
       </c>
       <c r="C49" t="n">
-        <v>1320</v>
+        <v>860</v>
       </c>
       <c r="D49" t="n">
-        <v>3.543651676074603</v>
+        <v>2.435232376673856</v>
       </c>
       <c r="E49" t="n">
-        <v>3.015987708510088</v>
+        <v>1.723037444284498</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.5276639675645147</v>
+        <v>-0.712194932389358</v>
       </c>
       <c r="G49" t="n">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="H49" t="n">
-        <v>90.63108915725411</v>
+        <v>80.83190589307492</v>
       </c>
       <c r="I49" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J49" t="n">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="K49" t="n">
-        <v>352.4472511020573</v>
+        <v>219.544596054908</v>
       </c>
       <c r="L49" t="n">
-        <v>18.21199933853702</v>
+        <v>6.492654752839824</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4648,24 +4648,24 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.6736653853531143</v>
+        <v>0.5963806207433437</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.6041666666666666</v>
+        <v>0.7974683544303798</v>
       </c>
       <c r="R49" t="n">
-        <v>0.08541408077381445</v>
+        <v>0.1442335339376156</v>
       </c>
       <c r="S49" t="n">
-        <v>0.8942783083231615</v>
+        <v>0.894827807595863</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>n33</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U49" t="n">
-        <v>531</v>
+        <v>970</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -4685,40 +4685,40 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2698</v>
+        <v>860</v>
       </c>
       <c r="B50" t="n">
-        <v>2733</v>
+        <v>892</v>
       </c>
       <c r="C50" t="n">
-        <v>2891</v>
+        <v>951</v>
       </c>
       <c r="D50" t="n">
-        <v>4.161829593146402</v>
+        <v>2.514315434791586</v>
       </c>
       <c r="E50" t="n">
-        <v>3.528947664455548</v>
+        <v>1.802120502402228</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.632881928690854</v>
+        <v>-0.712194932389358</v>
       </c>
       <c r="G50" t="n">
-        <v>193</v>
+        <v>91</v>
       </c>
       <c r="H50" t="n">
-        <v>135.5233743146032</v>
+        <v>72.05112671438872</v>
       </c>
       <c r="I50" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J50" t="n">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="K50" t="n">
-        <v>395.2398173869094</v>
+        <v>147.6701719918603</v>
       </c>
       <c r="L50" t="n">
-        <v>15.53019473403464</v>
+        <v>6.703500747692477</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -4734,24 +4734,24 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.9039282892049095</v>
+        <v>0.7846878983951322</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.2215189873417721</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="R50" t="n">
-        <v>0.4998875016157885</v>
+        <v>0.1807206432459326</v>
       </c>
       <c r="S50" t="n">
-        <v>0.9664738161558779</v>
+        <v>0.9913503554922937</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>n36</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U50" t="n">
-        <v>532</v>
+        <v>971</v>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -4771,40 +4771,40 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2891</v>
+        <v>2104</v>
       </c>
       <c r="B51" t="n">
-        <v>2936</v>
+        <v>2130</v>
       </c>
       <c r="C51" t="n">
-        <v>2998</v>
+        <v>2265</v>
       </c>
       <c r="D51" t="n">
-        <v>2.671789854873508</v>
+        <v>2.694183768966149</v>
       </c>
       <c r="E51" t="n">
-        <v>2.038907926182654</v>
+        <v>1.981988836576791</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.632881928690854</v>
+        <v>-0.712194932389358</v>
       </c>
       <c r="G51" t="n">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="H51" t="n">
-        <v>39.12757173847513</v>
+        <v>29.48349797876745</v>
       </c>
       <c r="I51" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="J51" t="n">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="K51" t="n">
-        <v>176.1021853456092</v>
+        <v>278.3104430213112</v>
       </c>
       <c r="L51" t="n">
-        <v>9.969994159043432</v>
+        <v>7.183053748855725</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -4820,24 +4820,24 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.7571928610786265</v>
+        <v>0.7473392080829759</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.7258064516129032</v>
+        <v>0.1925925925925926</v>
       </c>
       <c r="R51" t="n">
-        <v>0.1472465949626396</v>
+        <v>0.2235161984613092</v>
       </c>
       <c r="S51" t="n">
-        <v>0.9863537015830952</v>
+        <v>0.5052188825522954</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>n36</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U51" t="n">
-        <v>533</v>
+        <v>972</v>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -4857,40 +4857,40 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>965</v>
       </c>
       <c r="B52" t="n">
-        <v>12</v>
+        <v>986</v>
       </c>
       <c r="C52" t="n">
-        <v>213</v>
+        <v>1032</v>
       </c>
       <c r="D52" t="n">
-        <v>4.725276635912854</v>
+        <v>2.718529841166962</v>
       </c>
       <c r="E52" t="n">
-        <v>4.192099799957862</v>
+        <v>2.081623688327311</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.5331768359549929</v>
+        <v>-0.6369061528396509</v>
       </c>
       <c r="G52" t="n">
-        <v>213</v>
+        <v>67</v>
       </c>
       <c r="H52" t="n">
-        <v>19.01774964588456</v>
+        <v>25.48632278011394</v>
       </c>
       <c r="I52" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J52" t="n">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="K52" t="n">
-        <v>422.7841241631227</v>
+        <v>143.0475271125375</v>
       </c>
       <c r="L52" t="n">
-        <v>15.20689728655383</v>
+        <v>7.199347354239671</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -4906,24 +4906,24 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.6398823985897809</v>
+        <v>0.7997648694184347</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.05970149253731343</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="R52" t="n">
-        <v>0.5673885711684779</v>
+        <v>0.09934116315772445</v>
       </c>
       <c r="S52" t="n">
-        <v>0.3995271433511665</v>
+        <v>0.9754734282633555</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U52" t="n">
-        <v>534</v>
+        <v>973</v>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -4943,40 +4943,40 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>213</v>
+        <v>2461</v>
       </c>
       <c r="B53" t="n">
-        <v>301</v>
+        <v>2488</v>
       </c>
       <c r="C53" t="n">
-        <v>900</v>
+        <v>2622</v>
       </c>
       <c r="D53" t="n">
-        <v>4.358400341930247</v>
+        <v>2.521680179243142</v>
       </c>
       <c r="E53" t="n">
-        <v>3.825223505975254</v>
+        <v>1.884774026403491</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.5331768359549929</v>
+        <v>-0.6369061528396509</v>
       </c>
       <c r="G53" t="n">
-        <v>687</v>
+        <v>161</v>
       </c>
       <c r="H53" t="n">
-        <v>74.21768124350962</v>
+        <v>66.64698562470676</v>
       </c>
       <c r="I53" t="n">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="J53" t="n">
-        <v>599</v>
+        <v>134</v>
       </c>
       <c r="K53" t="n">
-        <v>768.2392859450385</v>
+        <v>237.967205553063</v>
       </c>
       <c r="L53" t="n">
-        <v>14.02621506425528</v>
+        <v>6.67804018619112</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -4992,24 +4992,24 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.5923106903577257</v>
+        <v>0.9113283148269414</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.1469115191986644</v>
+        <v>0.2014925373134328</v>
       </c>
       <c r="R53" t="n">
-        <v>0.6663197631962826</v>
+        <v>0.262325690717187</v>
       </c>
       <c r="S53" t="n">
-        <v>0.540880325603972</v>
+        <v>0.8339003892036134</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U53" t="n">
-        <v>535</v>
+        <v>974</v>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -5029,85 +5029,3697 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1930</v>
+        <v>1821</v>
       </c>
       <c r="B54" t="n">
-        <v>1969</v>
+        <v>1844</v>
       </c>
       <c r="C54" t="n">
-        <v>2086</v>
+        <v>1873</v>
       </c>
       <c r="D54" t="n">
-        <v>2.860628450842796</v>
+        <v>2.367364189184836</v>
       </c>
       <c r="E54" t="n">
-        <v>2.352537400855289</v>
+        <v>1.939070706528079</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.5080910499875071</v>
+        <v>-0.428293482656757</v>
       </c>
       <c r="G54" t="n">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="H54" t="n">
-        <v>66.89169623124826</v>
+        <v>26.24270326752116</v>
       </c>
       <c r="I54" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="J54" t="n">
+        <v>29</v>
+      </c>
+      <c r="K54" t="n">
+        <v>69.52690940864022</v>
+      </c>
+      <c r="L54" t="n">
+        <v>10.23361422446671</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>0.7633945275569338</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.2085028110230988</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.9458404026100822</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U54" t="n">
+        <v>975</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1873</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1899</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1975</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.234803367172055</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.8065098845152977</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.428293482656757</v>
+      </c>
+      <c r="G55" t="n">
+        <v>102</v>
+      </c>
+      <c r="H55" t="n">
+        <v>25.83086390048402</v>
+      </c>
+      <c r="I55" t="n">
+        <v>26</v>
+      </c>
+      <c r="J55" t="n">
+        <v>76</v>
+      </c>
+      <c r="K55" t="n">
+        <v>68.0324090044287</v>
+      </c>
+      <c r="L55" t="n">
+        <v>5.33779355134307</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>0.7780981475927163</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.3421052631578947</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.5038184878388697</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.7865189260747262</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>976</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2107</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2131</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2224</v>
+      </c>
+      <c r="D56" t="n">
+        <v>6.028619491534851</v>
+      </c>
+      <c r="E56" t="n">
+        <v>5.600326008878094</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.428293482656757</v>
+      </c>
+      <c r="G56" t="n">
         <v>117</v>
       </c>
-      <c r="K54" t="n">
-        <v>214.9194211475431</v>
-      </c>
-      <c r="L54" t="n">
-        <v>8.842806524847617</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P54" t="n">
-        <v>0.8762961146718014</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="R54" t="n">
-        <v>0.4203727464815682</v>
-      </c>
-      <c r="S54" t="n">
-        <v>0.6405502851157032</v>
-      </c>
-      <c r="T54" t="inlineStr">
+      <c r="H56" t="n">
+        <v>102.3229324677859</v>
+      </c>
+      <c r="I56" t="n">
+        <v>24</v>
+      </c>
+      <c r="J56" t="n">
+        <v>93</v>
+      </c>
+      <c r="K56" t="n">
+        <v>450.2280693044165</v>
+      </c>
+      <c r="L56" t="n">
+        <v>26.06044581746921</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>0.9113169882915995</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.2580645161290323</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.3417158162427885</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.9571787678429826</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
+        <v>977</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1774</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1832</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5.075536377401715</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4.588989519999799</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.4865468574019164</v>
+      </c>
+      <c r="G57" t="n">
+        <v>225</v>
+      </c>
+      <c r="H57" t="n">
+        <v>156.9049664329957</v>
+      </c>
+      <c r="I57" t="n">
+        <v>58</v>
+      </c>
+      <c r="J57" t="n">
+        <v>167</v>
+      </c>
+      <c r="K57" t="n">
+        <v>645.5126607123939</v>
+      </c>
+      <c r="L57" t="n">
+        <v>42.32670132141845</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>0.8316159684449523</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.3473053892215569</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.4237983922743506</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.9757124843819718</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>n21</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>978</v>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2028</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2065</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2.137293013175915</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.650746155773998</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.4865468574019164</v>
+      </c>
+      <c r="G58" t="n">
+        <v>66</v>
+      </c>
+      <c r="H58" t="n">
+        <v>27.67606845557248</v>
+      </c>
+      <c r="I58" t="n">
+        <v>29</v>
+      </c>
+      <c r="J58" t="n">
+        <v>37</v>
+      </c>
+      <c r="K58" t="n">
+        <v>104.689162814579</v>
+      </c>
+      <c r="L58" t="n">
+        <v>17.82364587274662</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>0.7059747501075246</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.7837837837837838</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.1111312331964323</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.9817381171029638</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>n21</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>979</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2065</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2096</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2192</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2.884853533527793</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2.398306676125877</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.4865468574019164</v>
+      </c>
+      <c r="G59" t="n">
+        <v>127</v>
+      </c>
+      <c r="H59" t="n">
+        <v>59.20338035330315</v>
+      </c>
+      <c r="I59" t="n">
+        <v>31</v>
+      </c>
+      <c r="J59" t="n">
+        <v>96</v>
+      </c>
+      <c r="K59" t="n">
+        <v>225.0983659986972</v>
+      </c>
+      <c r="L59" t="n">
+        <v>24.05781867968378</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>0.8489274745321478</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.3229166666666667</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.1125516102007503</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.9821956964985369</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>n21</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
+        <v>980</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>976</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1076</v>
+      </c>
+      <c r="D60" t="n">
+        <v>4.187512489519767</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3.681783314794655</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.5057291747251109</v>
+      </c>
+      <c r="G60" t="n">
+        <v>100</v>
+      </c>
+      <c r="H60" t="n">
+        <v>76.80623532518871</v>
+      </c>
+      <c r="I60" t="n">
+        <v>44</v>
+      </c>
+      <c r="J60" t="n">
+        <v>56</v>
+      </c>
+      <c r="K60" t="n">
+        <v>269.4901661983867</v>
+      </c>
+      <c r="L60" t="n">
+        <v>20.55921104874082</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>0.6404865684319304</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.09161387558884476</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.9883291152417456</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>981</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1859</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1910</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.950718267526465</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.355655589227677</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.5950626782987882</v>
+      </c>
+      <c r="G61" t="n">
+        <v>136</v>
+      </c>
+      <c r="H61" t="n">
+        <v>64.82126709145655</v>
+      </c>
+      <c r="I61" t="n">
+        <v>51</v>
+      </c>
+      <c r="J61" t="n">
+        <v>85</v>
+      </c>
+      <c r="K61" t="n">
+        <v>141.799790165623</v>
+      </c>
+      <c r="L61" t="n">
+        <v>4.761465881766573</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>0.684589610244573</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.2935264069772711</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.8445497119057537</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U61" t="n">
+        <v>982</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2057</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2091</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2146</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2.782346571952291</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2.157768406157361</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.6245781657949306</v>
+      </c>
+      <c r="G62" t="n">
+        <v>89</v>
+      </c>
+      <c r="H62" t="n">
+        <v>148.8282053070511</v>
+      </c>
+      <c r="I62" t="n">
+        <v>34</v>
+      </c>
+      <c r="J62" t="n">
+        <v>55</v>
+      </c>
+      <c r="K62" t="n">
+        <v>168.7332755309814</v>
+      </c>
+      <c r="L62" t="n">
+        <v>8.751487462717174</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>0.7664182333611884</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.6181818181818182</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.2464971044212832</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.9376002893745512</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>n24</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
+        <v>983</v>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>63</v>
+      </c>
+      <c r="B63" t="n">
+        <v>89</v>
+      </c>
+      <c r="C63" t="n">
+        <v>321</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2.063147399342049</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.621307676190207</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.4418397231518426</v>
+      </c>
+      <c r="G63" t="n">
+        <v>258</v>
+      </c>
+      <c r="H63" t="n">
+        <v>408.4530875958578</v>
+      </c>
+      <c r="I63" t="n">
+        <v>26</v>
+      </c>
+      <c r="J63" t="n">
+        <v>232</v>
+      </c>
+      <c r="K63" t="n">
+        <v>358.8432512034552</v>
+      </c>
+      <c r="L63" t="n">
+        <v>4.655285956932896</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>[{'index': np.int64(289), 'value': np.float64(1.2581161873826356), 'amplitude': np.float64(1.6999559105344781), 'start_idx': np.int64(272), 'end_idx': np.int64(320), 'duration': np.float64(48.0), 'fwhm': np.float64(34.23595012610235), 'rise_time': np.float64(17.0), 'decay_time': np.float64(31.0), 'auc': np.float64(67.54460660244655)}]</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>0.7007756671234038</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.1120689655172414</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.3663375350954777</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.3730290584271803</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U63" t="n">
+        <v>984</v>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1793</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1821</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1864</v>
+      </c>
+      <c r="D64" t="n">
+        <v>5.550658965690424</v>
+      </c>
+      <c r="E64" t="n">
+        <v>5.108819242538582</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.4418397231518426</v>
+      </c>
+      <c r="G64" t="n">
+        <v>71</v>
+      </c>
+      <c r="H64" t="n">
+        <v>95.67597599163901</v>
+      </c>
+      <c r="I64" t="n">
+        <v>28</v>
+      </c>
+      <c r="J64" t="n">
+        <v>43</v>
+      </c>
+      <c r="K64" t="n">
+        <v>258.7066477141134</v>
+      </c>
+      <c r="L64" t="n">
+        <v>12.52450733425193</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>0.7714487010292403</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.6511627906976745</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.3369834832042392</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.9855525531786844</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U64" t="n">
+        <v>985</v>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>72</v>
+      </c>
+      <c r="C65" t="n">
+        <v>319</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.028260525996886</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.5160516579904045</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.5122088680064816</v>
+      </c>
+      <c r="G65" t="n">
+        <v>319</v>
+      </c>
+      <c r="H65" t="n">
+        <v>32.76569489581389</v>
+      </c>
+      <c r="I65" t="n">
+        <v>72</v>
+      </c>
+      <c r="J65" t="n">
+        <v>247</v>
+      </c>
+      <c r="K65" t="n">
+        <v>165.8805650947391</v>
+      </c>
+      <c r="L65" t="n">
+        <v>5.024763713769558</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>[{'index': np.int64(203), 'value': np.float64(0.06812721902590554), 'amplitude': np.float64(0.5803360870323871), 'start_idx': np.int64(183), 'end_idx': np.int64(225), 'duration': np.float64(42.0), 'fwhm': np.float64(69.22519855705534), 'rise_time': np.float64(20.0), 'decay_time': np.float64(22.0), 'auc': np.float64(18.10229411010233)}]</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>0.5878909354547727</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.291497975708502</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.4711191501097754</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.5026743747247907</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U65" t="n">
+        <v>986</v>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2537</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2568</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2682</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3.570200062804743</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3.057991194798261</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.5122088680064816</v>
+      </c>
+      <c r="G66" t="n">
+        <v>145</v>
+      </c>
+      <c r="H66" t="n">
+        <v>57.80659950266408</v>
+      </c>
+      <c r="I66" t="n">
+        <v>31</v>
+      </c>
+      <c r="J66" t="n">
+        <v>114</v>
+      </c>
+      <c r="K66" t="n">
+        <v>242.6061713145431</v>
+      </c>
+      <c r="L66" t="n">
+        <v>17.44636818484015</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>0.969128003746307</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.2719298245614035</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.2984465817351895</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.9065134777631396</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U66" t="n">
+        <v>987</v>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2682</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2714</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2912</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4.354577406399438</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3.842368538392956</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.5122088680064816</v>
+      </c>
+      <c r="G67" t="n">
+        <v>230</v>
+      </c>
+      <c r="H67" t="n">
+        <v>54.74717721215256</v>
+      </c>
+      <c r="I67" t="n">
+        <v>32</v>
+      </c>
+      <c r="J67" t="n">
+        <v>198</v>
+      </c>
+      <c r="K67" t="n">
+        <v>333.2418981191856</v>
+      </c>
+      <c r="L67" t="n">
+        <v>21.2793567265101</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>0.8260841619121728</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.1616161616161616</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.4276202920884734</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.8033431590573819</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U67" t="n">
+        <v>988</v>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2475</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2521</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2614</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2.631696181337106</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2.152521726104831</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0.4791744552322756</v>
+      </c>
+      <c r="G68" t="n">
+        <v>139</v>
+      </c>
+      <c r="H68" t="n">
+        <v>90.72790101909095</v>
+      </c>
+      <c r="I68" t="n">
+        <v>46</v>
+      </c>
+      <c r="J68" t="n">
+        <v>93</v>
+      </c>
+      <c r="K68" t="n">
+        <v>205.9885281424253</v>
+      </c>
+      <c r="L68" t="n">
+        <v>5.453625727147351</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>0.8302362955369661</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.4946236559139785</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.3533260890568349</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.9170062664345551</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U68" t="n">
+        <v>989</v>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2712</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2731</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2764</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2.068476786934077</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.589302331701801</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.4791744552322756</v>
+      </c>
+      <c r="G69" t="n">
+        <v>52</v>
+      </c>
+      <c r="H69" t="n">
+        <v>25.13813761960546</v>
+      </c>
+      <c r="I69" t="n">
+        <v>19</v>
+      </c>
+      <c r="J69" t="n">
+        <v>33</v>
+      </c>
+      <c r="K69" t="n">
+        <v>72.72694258486997</v>
+      </c>
+      <c r="L69" t="n">
+        <v>4.286474366315074</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>0.791178801519701</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.2540837794690816</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.7569848200159764</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U69" t="n">
+        <v>990</v>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1075</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1147</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1297</v>
+      </c>
+      <c r="D70" t="n">
+        <v>3.382384275692085</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2.698484233793476</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.6839000418986089</v>
+      </c>
+      <c r="G70" t="n">
+        <v>222</v>
+      </c>
+      <c r="H70" t="n">
+        <v>282.8500063515457</v>
+      </c>
+      <c r="I70" t="n">
+        <v>72</v>
+      </c>
+      <c r="J70" t="n">
+        <v>150</v>
+      </c>
+      <c r="K70" t="n">
+        <v>452.4895855580484</v>
+      </c>
+      <c r="L70" t="n">
+        <v>10.57620817385419</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>0.6433034495053954</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.3261907284598889</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.8375875873874695</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U70" t="n">
+        <v>991</v>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1297</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1319</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1401</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.238455421611777</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.5545553797131679</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.6839000418986089</v>
+      </c>
+      <c r="G71" t="n">
+        <v>104</v>
+      </c>
+      <c r="H71" t="n">
+        <v>25.08538416192391</v>
+      </c>
+      <c r="I71" t="n">
+        <v>22</v>
+      </c>
+      <c r="J71" t="n">
+        <v>82</v>
+      </c>
+      <c r="K71" t="n">
+        <v>68.63746530767199</v>
+      </c>
+      <c r="L71" t="n">
+        <v>3.872464298966868</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>1</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>[{'index': np.int64(1373), 'value': np.float64(0.09184191360802693), 'amplitude': np.float64(0.7757419555066358), 'start_idx': np.int64(1345), 'end_idx': np.int64(1400), 'duration': np.float64(55.0), 'fwhm': np.float64(26.70347176110522), 'rise_time': np.float64(28.0), 'decay_time': np.float64(27.0), 'auc': np.float64(28.759504186586486)}]</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>0.8036614086021751</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.2682926829268293</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.2973023601009878</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.4551143864037633</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U71" t="n">
+        <v>992</v>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1874</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1892</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1965</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2.289149472879338</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1.605249430980729</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.6839000418986089</v>
+      </c>
+      <c r="G72" t="n">
+        <v>91</v>
+      </c>
+      <c r="H72" t="n">
+        <v>16.86118113327757</v>
+      </c>
+      <c r="I72" t="n">
+        <v>18</v>
+      </c>
+      <c r="J72" t="n">
+        <v>73</v>
+      </c>
+      <c r="K72" t="n">
+        <v>154.4557935311328</v>
+      </c>
+      <c r="L72" t="n">
+        <v>7.157826962546007</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>0.7423407828455525</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.2465753424657534</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.170994623663389</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.5585976174703324</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U72" t="n">
+        <v>993</v>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2465</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2499</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2573</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.620338342076427</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.936438300177818</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.6839000418986089</v>
+      </c>
+      <c r="G73" t="n">
+        <v>108</v>
+      </c>
+      <c r="H73" t="n">
+        <v>85.79096220156316</v>
+      </c>
+      <c r="I73" t="n">
+        <v>34</v>
+      </c>
+      <c r="J73" t="n">
+        <v>74</v>
+      </c>
+      <c r="K73" t="n">
+        <v>200.3102824559594</v>
+      </c>
+      <c r="L73" t="n">
+        <v>8.193404868541053</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>0.6812927968953062</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.4594594594594595</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.06804571751623635</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.8517623206506399</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U73" t="n">
+        <v>994</v>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>717</v>
+      </c>
+      <c r="B74" t="n">
+        <v>777</v>
+      </c>
+      <c r="C74" t="n">
+        <v>871</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.5199657433137227</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.02150677382239076</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.4984589694913319</v>
+      </c>
+      <c r="G74" t="n">
+        <v>154</v>
+      </c>
+      <c r="H74" t="n">
+        <v>32.09194483072304</v>
+      </c>
+      <c r="I74" t="n">
+        <v>60</v>
+      </c>
+      <c r="J74" t="n">
+        <v>94</v>
+      </c>
+      <c r="K74" t="n">
+        <v>32.0687405370104</v>
+      </c>
+      <c r="L74" t="n">
+        <v>3.453343094287742</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>0.6063129547228966</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.6382978723404256</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.5713852108332207</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.9254080877820116</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U74" t="n">
+        <v>995</v>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2407</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2429</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2467</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.9719555028087346</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.4734965333174025</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.4984589694913319</v>
+      </c>
+      <c r="G75" t="n">
+        <v>60</v>
+      </c>
+      <c r="H75" t="n">
+        <v>74.78099161546561</v>
+      </c>
+      <c r="I75" t="n">
+        <v>22</v>
+      </c>
+      <c r="J75" t="n">
+        <v>38</v>
+      </c>
+      <c r="K75" t="n">
+        <v>36.97124127196277</v>
+      </c>
+      <c r="L75" t="n">
+        <v>6.455224919604681</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>0.7906344680063193</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.2977595935832881</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.9714879561615684</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U75" t="n">
+        <v>996</v>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2467</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2503</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2571</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.7459672399979701</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.2475082705066381</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.4984589694913319</v>
+      </c>
+      <c r="G76" t="n">
+        <v>104</v>
+      </c>
+      <c r="H76" t="n">
+        <v>75.73938438161258</v>
+      </c>
+      <c r="I76" t="n">
+        <v>36</v>
+      </c>
+      <c r="J76" t="n">
+        <v>68</v>
+      </c>
+      <c r="K76" t="n">
+        <v>56.39137724211425</v>
+      </c>
+      <c r="L76" t="n">
+        <v>4.954327953212086</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>0.6693989021568488</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.1386864947251545</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.6040835625708663</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U76" t="n">
+        <v>997</v>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2615</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2641</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2676</v>
+      </c>
+      <c r="D77" t="n">
+        <v>3.579516474231492</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3.08105750474016</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.4984589694913319</v>
+      </c>
+      <c r="G77" t="n">
+        <v>61</v>
+      </c>
+      <c r="H77" t="n">
+        <v>30.21958768930563</v>
+      </c>
+      <c r="I77" t="n">
+        <v>26</v>
+      </c>
+      <c r="J77" t="n">
+        <v>35</v>
+      </c>
+      <c r="K77" t="n">
+        <v>183.5977400463509</v>
+      </c>
+      <c r="L77" t="n">
+        <v>23.77329402202235</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>0.6383142207394186</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.7428571428571429</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.04767432500366948</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.9855465285867556</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U77" t="n">
+        <v>998</v>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2676</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2722</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2874</v>
+      </c>
+      <c r="D78" t="n">
+        <v>4.031965701534914</v>
+      </c>
+      <c r="E78" t="n">
+        <v>3.533506732043582</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.4984589694913319</v>
+      </c>
+      <c r="G78" t="n">
+        <v>198</v>
+      </c>
+      <c r="H78" t="n">
+        <v>334.3292367346335</v>
+      </c>
+      <c r="I78" t="n">
+        <v>46</v>
+      </c>
+      <c r="J78" t="n">
+        <v>152</v>
+      </c>
+      <c r="K78" t="n">
+        <v>648.2000233580409</v>
+      </c>
+      <c r="L78" t="n">
+        <v>26.77822739449143</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>0.6604497567405416</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.3026315789473684</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.07223385948645016</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.9010477154855181</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U78" t="n">
+        <v>999</v>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>2874</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2907</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2998</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2.828521287240997</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2.330062317749665</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.4984589694913319</v>
+      </c>
+      <c r="G79" t="n">
+        <v>124</v>
+      </c>
+      <c r="H79" t="n">
+        <v>27.99725086950093</v>
+      </c>
+      <c r="I79" t="n">
+        <v>33</v>
+      </c>
+      <c r="J79" t="n">
+        <v>91</v>
+      </c>
+      <c r="K79" t="n">
+        <v>214.6374493560158</v>
+      </c>
+      <c r="L79" t="n">
+        <v>18.78557304965783</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>0.7800656474815632</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.3626373626373626</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.4128041326227214</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.8292989452307709</v>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>n30</t>
+        </is>
+      </c>
+      <c r="U79" t="n">
+        <v>1000</v>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>2439</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2469</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2518</v>
+      </c>
+      <c r="D80" t="n">
+        <v>3.789531538338783</v>
+      </c>
+      <c r="E80" t="n">
+        <v>3.264173025405068</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-0.5253585129337146</v>
+      </c>
+      <c r="G80" t="n">
+        <v>79</v>
+      </c>
+      <c r="H80" t="n">
+        <v>87.00735740409527</v>
+      </c>
+      <c r="I80" t="n">
+        <v>30</v>
+      </c>
+      <c r="J80" t="n">
+        <v>49</v>
+      </c>
+      <c r="K80" t="n">
+        <v>186.2645170907281</v>
+      </c>
+      <c r="L80" t="n">
+        <v>9.974419987224719</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>0.7822816554561079</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.2928283782000299</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0.9655718118847494</v>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U80" t="n">
+        <v>1001</v>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1169</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1217</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1326</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3.76247630954474</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3.22786013625167</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.5346161732930702</v>
+      </c>
+      <c r="G81" t="n">
+        <v>157</v>
+      </c>
+      <c r="H81" t="n">
+        <v>87.35363705315854</v>
+      </c>
+      <c r="I81" t="n">
+        <v>48</v>
+      </c>
+      <c r="J81" t="n">
+        <v>109</v>
+      </c>
+      <c r="K81" t="n">
+        <v>358.9509071110591</v>
+      </c>
+      <c r="L81" t="n">
+        <v>19.38647351669819</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>0.7364336484134426</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.4403669724770642</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.08757404207588783</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.8937482961901138</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U81" t="n">
+        <v>1002</v>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1373</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1404</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1508</v>
+      </c>
+      <c r="D82" t="n">
+        <v>4.098878049021364</v>
+      </c>
+      <c r="E82" t="n">
+        <v>3.564261875728294</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-0.5346161732930702</v>
+      </c>
+      <c r="G82" t="n">
+        <v>135</v>
+      </c>
+      <c r="H82" t="n">
+        <v>159.786426558099</v>
+      </c>
+      <c r="I82" t="n">
+        <v>31</v>
+      </c>
+      <c r="J82" t="n">
+        <v>104</v>
+      </c>
+      <c r="K82" t="n">
+        <v>391.7126499656861</v>
+      </c>
+      <c r="L82" t="n">
+        <v>21.11981158364907</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>0.7567855402396941</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.2980769230769231</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.06958783257422452</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0.9064213388677335</v>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U82" t="n">
+        <v>1003</v>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2043</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2144</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2.07816854251472</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.543552369221649</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-0.5346161732930702</v>
+      </c>
+      <c r="G83" t="n">
+        <v>134</v>
+      </c>
+      <c r="H83" t="n">
+        <v>54.42012043896989</v>
+      </c>
+      <c r="I83" t="n">
+        <v>33</v>
+      </c>
+      <c r="J83" t="n">
+        <v>101</v>
+      </c>
+      <c r="K83" t="n">
+        <v>117.3932942740875</v>
+      </c>
+      <c r="L83" t="n">
+        <v>10.70793703351498</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>0.9426645612879221</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.3267326732673267</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.2848116840592475</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.8922587207453658</v>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U83" t="n">
+        <v>1004</v>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>184</v>
+      </c>
+      <c r="B84" t="n">
+        <v>211</v>
+      </c>
+      <c r="C84" t="n">
+        <v>257</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.849601844154444</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.297780720636708</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.551821123517736</v>
+      </c>
+      <c r="G84" t="n">
+        <v>73</v>
+      </c>
+      <c r="H84" t="n">
+        <v>201.393255383819</v>
+      </c>
+      <c r="I84" t="n">
+        <v>27</v>
+      </c>
+      <c r="J84" t="n">
+        <v>46</v>
+      </c>
+      <c r="K84" t="n">
+        <v>82.56228622508191</v>
+      </c>
+      <c r="L84" t="n">
+        <v>4.82807574620023</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>0.7803861132835124</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.5869565217391305</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.255660373989239</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.9835142560806426</v>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U84" t="n">
+        <v>1005</v>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1720</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1749</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1879</v>
+      </c>
+      <c r="D85" t="n">
+        <v>4.888834285785192</v>
+      </c>
+      <c r="E85" t="n">
+        <v>4.337013162267456</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.551821123517736</v>
+      </c>
+      <c r="G85" t="n">
+        <v>159</v>
+      </c>
+      <c r="H85" t="n">
+        <v>90.29230055723724</v>
+      </c>
+      <c r="I85" t="n">
+        <v>29</v>
+      </c>
+      <c r="J85" t="n">
+        <v>130</v>
+      </c>
+      <c r="K85" t="n">
+        <v>335.1506252227019</v>
+      </c>
+      <c r="L85" t="n">
+        <v>12.76148286561758</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>0.8918009089516544</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.2230769230769231</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.5553106030718392</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.8476076410425919</v>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U85" t="n">
+        <v>1006</v>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2338</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2390</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2569</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2.098524936685241</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.546703813167505</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0.551821123517736</v>
+      </c>
+      <c r="G86" t="n">
+        <v>231</v>
+      </c>
+      <c r="H86" t="n">
+        <v>90.81568491611506</v>
+      </c>
+      <c r="I86" t="n">
+        <v>52</v>
+      </c>
+      <c r="J86" t="n">
+        <v>179</v>
+      </c>
+      <c r="K86" t="n">
+        <v>271.4073847270383</v>
+      </c>
+      <c r="L86" t="n">
+        <v>5.477847776605246</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>0.9046494894964905</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.2905027932960894</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.2065169778199648</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.7246266700370245</v>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U86" t="n">
+        <v>1007</v>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2476</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2559</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2.525274474870735</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1.881287752617281</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-0.6439867222534539</v>
+      </c>
+      <c r="G87" t="n">
+        <v>83</v>
+      </c>
+      <c r="H87" t="n">
+        <v>157.9840182826169</v>
+      </c>
+      <c r="I87" t="n">
+        <v>24</v>
+      </c>
+      <c r="J87" t="n">
+        <v>59</v>
+      </c>
+      <c r="K87" t="n">
+        <v>164.967650365544</v>
+      </c>
+      <c r="L87" t="n">
+        <v>7.814418696611825</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>0.6467909088513206</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.4067796610169492</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.09915187673014697</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.5604125565868694</v>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U87" t="n">
+        <v>1008</v>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>205</v>
+      </c>
+      <c r="B88" t="n">
+        <v>236</v>
+      </c>
+      <c r="C88" t="n">
+        <v>295</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1.673719760741271</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.058477582043836</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-0.615242178697435</v>
+      </c>
+      <c r="G88" t="n">
+        <v>90</v>
+      </c>
+      <c r="H88" t="n">
+        <v>27.66640693947778</v>
+      </c>
+      <c r="I88" t="n">
+        <v>31</v>
+      </c>
+      <c r="J88" t="n">
+        <v>59</v>
+      </c>
+      <c r="K88" t="n">
+        <v>80.74192931921105</v>
+      </c>
+      <c r="L88" t="n">
+        <v>6.159521807462895</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>0.8479860136007974</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.5254237288135594</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.3574198629797078</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.9673189041406622</v>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>n36</t>
+        </is>
+      </c>
+      <c r="U88" t="n">
+        <v>1009</v>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>660</v>
+      </c>
+      <c r="B89" t="n">
+        <v>691</v>
+      </c>
+      <c r="C89" t="n">
+        <v>793</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1.420729000276113</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.8054868215786776</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-0.615242178697435</v>
+      </c>
+      <c r="G89" t="n">
+        <v>133</v>
+      </c>
+      <c r="H89" t="n">
+        <v>39.07432747312509</v>
+      </c>
+      <c r="I89" t="n">
+        <v>31</v>
+      </c>
+      <c r="J89" t="n">
+        <v>102</v>
+      </c>
+      <c r="K89" t="n">
+        <v>90.79947891896688</v>
+      </c>
+      <c r="L89" t="n">
+        <v>5.22848057659303</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>0.8815463570413332</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.303921568627451</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.3347462853487413</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0.7165886598909799</v>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>n36</t>
+        </is>
+      </c>
+      <c r="U89" t="n">
+        <v>1010</v>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2729</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2897</v>
+      </c>
+      <c r="D90" t="n">
+        <v>4.388854766708022</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3.773612588010587</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-0.615242178697435</v>
+      </c>
+      <c r="G90" t="n">
+        <v>197</v>
+      </c>
+      <c r="H90" t="n">
+        <v>124.8202092875681</v>
+      </c>
+      <c r="I90" t="n">
+        <v>29</v>
+      </c>
+      <c r="J90" t="n">
+        <v>168</v>
+      </c>
+      <c r="K90" t="n">
+        <v>390.2115936753107</v>
+      </c>
+      <c r="L90" t="n">
+        <v>16.15159674840238</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>0.8833004534634997</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0.1726190476190476</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.4877758966064853</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0.9519006503603128</v>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>n36</t>
+        </is>
+      </c>
+      <c r="U90" t="n">
+        <v>1011</v>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2897</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2932</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2998</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2.808042742759848</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2.192800564062413</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-0.615242178697435</v>
+      </c>
+      <c r="G91" t="n">
+        <v>101</v>
+      </c>
+      <c r="H91" t="n">
+        <v>40.6961877028275</v>
+      </c>
+      <c r="I91" t="n">
+        <v>35</v>
+      </c>
+      <c r="J91" t="n">
+        <v>66</v>
+      </c>
+      <c r="K91" t="n">
+        <v>169.9680085241509</v>
+      </c>
+      <c r="L91" t="n">
+        <v>10.33398835098709</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>0.8373008039977365</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.5303030303030303</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.175034776577304</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.9814211899016071</v>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>n36</t>
+        </is>
+      </c>
+      <c r="U91" t="n">
+        <v>1012</v>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>12</v>
+      </c>
+      <c r="C92" t="n">
+        <v>103</v>
+      </c>
+      <c r="D92" t="n">
+        <v>4.868978395600191</v>
+      </c>
+      <c r="E92" t="n">
+        <v>4.342705695257314</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-0.5262727003428769</v>
+      </c>
+      <c r="G92" t="n">
+        <v>103</v>
+      </c>
+      <c r="H92" t="n">
+        <v>19.84585591258453</v>
+      </c>
+      <c r="I92" t="n">
+        <v>12</v>
+      </c>
+      <c r="J92" t="n">
+        <v>91</v>
+      </c>
+      <c r="K92" t="n">
+        <v>259.2411881702928</v>
+      </c>
+      <c r="L92" t="n">
+        <v>15.49762490211706</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>0.8210714096838665</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0.1318681318681319</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.4776330701338334</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0.9420869685597832</v>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U92" t="n">
+        <v>1013</v>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>103</v>
+      </c>
+      <c r="B93" t="n">
+        <v>133</v>
+      </c>
+      <c r="C93" t="n">
+        <v>220</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1.696153002836134</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.169880302493257</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-0.5262727003428769</v>
+      </c>
+      <c r="G93" t="n">
+        <v>117</v>
+      </c>
+      <c r="H93" t="n">
+        <v>92.40265282778157</v>
+      </c>
+      <c r="I93" t="n">
+        <v>30</v>
+      </c>
+      <c r="J93" t="n">
+        <v>87</v>
+      </c>
+      <c r="K93" t="n">
+        <v>169.5078281792381</v>
+      </c>
+      <c r="L93" t="n">
+        <v>5.398738889108095</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>0.6831254827605444</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0.3448275862068966</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.1409292957018204</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0.3287629862319356</v>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U93" t="n">
+        <v>1014</v>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>269</v>
+      </c>
+      <c r="B94" t="n">
+        <v>300</v>
+      </c>
+      <c r="C94" t="n">
+        <v>906</v>
+      </c>
+      <c r="D94" t="n">
+        <v>4.595300540176846</v>
+      </c>
+      <c r="E94" t="n">
+        <v>4.06902783983397</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-0.5262727003428769</v>
+      </c>
+      <c r="G94" t="n">
+        <v>637</v>
+      </c>
+      <c r="H94" t="n">
+        <v>68.68477669302411</v>
+      </c>
+      <c r="I94" t="n">
+        <v>31</v>
+      </c>
+      <c r="J94" t="n">
+        <v>606</v>
+      </c>
+      <c r="K94" t="n">
+        <v>641.3994316157796</v>
+      </c>
+      <c r="L94" t="n">
+        <v>14.62652702433648</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>0.6693972007670176</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.05115511551155116</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.7387115885217007</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0.534585871806226</v>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U94" t="n">
+        <v>1015</v>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1550</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1575</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1651</v>
+      </c>
+      <c r="D95" t="n">
+        <v>4.245873903026878</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3.737140967767709</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-0.5087329352591684</v>
+      </c>
+      <c r="G95" t="n">
+        <v>101</v>
+      </c>
+      <c r="H95" t="n">
+        <v>83.02760539688097</v>
+      </c>
+      <c r="I95" t="n">
+        <v>25</v>
+      </c>
+      <c r="J95" t="n">
+        <v>76</v>
+      </c>
+      <c r="K95" t="n">
+        <v>203.589750643547</v>
+      </c>
+      <c r="L95" t="n">
+        <v>12.88757383629318</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>0.8945161404812882</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0.3289473684210527</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.5684533247493176</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0.9342638709022787</v>
+      </c>
+      <c r="T95" t="inlineStr">
         <is>
           <t>n38</t>
         </is>
       </c>
-      <c r="U54" t="n">
-        <v>536</v>
-      </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>processed_240924openfieldtrace.xlsx</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
-        </is>
-      </c>
-      <c r="X54" t="inlineStr">
+      <c r="U95" t="n">
+        <v>1016</v>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1937</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2037</v>
+      </c>
+      <c r="D96" t="n">
+        <v>3.051738608867473</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2.543005673608305</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-0.5087329352591684</v>
+      </c>
+      <c r="G96" t="n">
+        <v>100</v>
+      </c>
+      <c r="H96" t="n">
+        <v>48.35492387726799</v>
+      </c>
+      <c r="I96" t="n">
+        <v>28</v>
+      </c>
+      <c r="J96" t="n">
+        <v>72</v>
+      </c>
+      <c r="K96" t="n">
+        <v>163.9069621408426</v>
+      </c>
+      <c r="L96" t="n">
+        <v>9.262994509283057</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>0.8850842977929172</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.3059730190561505</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0.8647271318731241</v>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>n38</t>
+        </is>
+      </c>
+      <c r="U96" t="n">
+        <v>1017</v>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X96" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_240924openfieldtrace/processed_240924openfieldtrace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_240924openfieldtrace/processed_240924openfieldtrace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X96"/>
+  <dimension ref="A1:X102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>923</v>
+        <v>974</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>924</v>
+        <v>975</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>925</v>
+        <v>976</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>926</v>
+        <v>977</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>927</v>
+        <v>978</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>928</v>
+        <v>979</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>929</v>
+        <v>980</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>930</v>
+        <v>981</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>931</v>
+        <v>982</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>932</v>
+        <v>983</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>933</v>
+        <v>984</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>934</v>
+        <v>985</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="U14" t="n">
-        <v>935</v>
+        <v>986</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         </is>
       </c>
       <c r="U15" t="n">
-        <v>936</v>
+        <v>987</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="U16" t="n">
-        <v>937</v>
+        <v>988</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="U17" t="n">
-        <v>938</v>
+        <v>989</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="U18" t="n">
-        <v>939</v>
+        <v>990</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="U19" t="n">
-        <v>940</v>
+        <v>991</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="U20" t="n">
-        <v>941</v>
+        <v>992</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="U21" t="n">
-        <v>942</v>
+        <v>993</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="U22" t="n">
-        <v>943</v>
+        <v>994</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="U23" t="n">
-        <v>944</v>
+        <v>995</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="U24" t="n">
-        <v>945</v>
+        <v>996</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="U25" t="n">
-        <v>946</v>
+        <v>997</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="U26" t="n">
-        <v>947</v>
+        <v>998</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         </is>
       </c>
       <c r="U27" t="n">
-        <v>948</v>
+        <v>999</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="U28" t="n">
-        <v>949</v>
+        <v>1000</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="U29" t="n">
-        <v>950</v>
+        <v>1001</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         </is>
       </c>
       <c r="U30" t="n">
-        <v>951</v>
+        <v>1002</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="U31" t="n">
-        <v>952</v>
+        <v>1003</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="U32" t="n">
-        <v>953</v>
+        <v>1004</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         </is>
       </c>
       <c r="U33" t="n">
-        <v>954</v>
+        <v>1005</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         </is>
       </c>
       <c r="U34" t="n">
-        <v>955</v>
+        <v>1006</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="U35" t="n">
-        <v>956</v>
+        <v>1007</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="U36" t="n">
-        <v>957</v>
+        <v>1008</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         </is>
       </c>
       <c r="U37" t="n">
-        <v>958</v>
+        <v>1009</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         </is>
       </c>
       <c r="U38" t="n">
-        <v>959</v>
+        <v>1010</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         </is>
       </c>
       <c r="U39" t="n">
-        <v>960</v>
+        <v>1011</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         </is>
       </c>
       <c r="U40" t="n">
-        <v>961</v>
+        <v>1012</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         </is>
       </c>
       <c r="U41" t="n">
-        <v>962</v>
+        <v>1013</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="U42" t="n">
-        <v>963</v>
+        <v>1014</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="U43" t="n">
-        <v>964</v>
+        <v>1015</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4169,40 +4169,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>550</v>
+        <v>2639</v>
       </c>
       <c r="B44" t="n">
-        <v>578</v>
+        <v>2660</v>
       </c>
       <c r="C44" t="n">
-        <v>622</v>
+        <v>2768</v>
       </c>
       <c r="D44" t="n">
-        <v>4.127441849547653</v>
+        <v>3.775896561912452</v>
       </c>
       <c r="E44" t="n">
-        <v>3.453856102447574</v>
+        <v>3.15286413674959</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.6735857471000791</v>
+        <v>-0.6230324251628621</v>
       </c>
       <c r="G44" t="n">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="H44" t="n">
-        <v>58.60174787142603</v>
+        <v>109.3603633592356</v>
       </c>
       <c r="I44" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J44" t="n">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="K44" t="n">
-        <v>198.6453963561949</v>
+        <v>320.5988430741687</v>
       </c>
       <c r="L44" t="n">
-        <v>15.34814163309486</v>
+        <v>13.38016802304155</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4218,24 +4218,24 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.7424853208808302</v>
+        <v>0.8790782685305799</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="R44" t="n">
-        <v>0.1669474275334025</v>
+        <v>0.3602668374802105</v>
       </c>
       <c r="S44" t="n">
-        <v>0.9906479621728542</v>
+        <v>0.9509723507267893</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n16</t>
         </is>
       </c>
       <c r="U44" t="n">
-        <v>965</v>
+        <v>1016</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4255,40 +4255,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
+        <v>550</v>
+      </c>
+      <c r="B45" t="n">
+        <v>578</v>
+      </c>
+      <c r="C45" t="n">
         <v>622</v>
       </c>
-      <c r="B45" t="n">
-        <v>653</v>
-      </c>
-      <c r="C45" t="n">
-        <v>764</v>
-      </c>
       <c r="D45" t="n">
-        <v>2.266432660143274</v>
+        <v>4.127441849547653</v>
       </c>
       <c r="E45" t="n">
-        <v>1.592846913043195</v>
+        <v>3.453856102447574</v>
       </c>
       <c r="F45" t="n">
         <v>-0.6735857471000791</v>
       </c>
       <c r="G45" t="n">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="H45" t="n">
-        <v>19.68094093723266</v>
+        <v>58.60174787142603</v>
       </c>
       <c r="I45" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J45" t="n">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="K45" t="n">
-        <v>156.2789094008369</v>
+        <v>198.6453963561949</v>
       </c>
       <c r="L45" t="n">
-        <v>8.427866639372096</v>
+        <v>15.34814163309486</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.6979207273927573</v>
+        <v>0.7424853208808302</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.2792792792792793</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="R45" t="n">
-        <v>0.4151395780469939</v>
+        <v>0.1669474275334025</v>
       </c>
       <c r="S45" t="n">
-        <v>0.4599767719911685</v>
+        <v>0.9906479621728542</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="U45" t="n">
-        <v>966</v>
+        <v>1017</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4341,40 +4341,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>821</v>
+        <v>622</v>
       </c>
       <c r="B46" t="n">
-        <v>872</v>
+        <v>653</v>
       </c>
       <c r="C46" t="n">
-        <v>960</v>
+        <v>764</v>
       </c>
       <c r="D46" t="n">
-        <v>2.770287297577312</v>
+        <v>2.266432660143274</v>
       </c>
       <c r="E46" t="n">
-        <v>2.096701550477233</v>
+        <v>1.592846913043195</v>
       </c>
       <c r="F46" t="n">
         <v>-0.6735857471000791</v>
       </c>
       <c r="G46" t="n">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H46" t="n">
-        <v>71.01200198809499</v>
+        <v>19.68094093723266</v>
       </c>
       <c r="I46" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="J46" t="n">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="K46" t="n">
-        <v>216.8523269794979</v>
+        <v>156.2789094008369</v>
       </c>
       <c r="L46" t="n">
-        <v>10.30148051928098</v>
+        <v>8.427866639372096</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4390,16 +4390,16 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.8139937408543799</v>
+        <v>0.6979207273927573</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.5795454545454546</v>
+        <v>0.2792792792792793</v>
       </c>
       <c r="R46" t="n">
-        <v>0.3707262316201509</v>
+        <v>0.4151395780469939</v>
       </c>
       <c r="S46" t="n">
-        <v>0.8904965968805488</v>
+        <v>0.4599767719911685</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="U46" t="n">
-        <v>967</v>
+        <v>1018</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4427,40 +4427,40 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
+        <v>821</v>
+      </c>
+      <c r="B47" t="n">
+        <v>872</v>
+      </c>
+      <c r="C47" t="n">
         <v>960</v>
       </c>
-      <c r="B47" t="n">
-        <v>992</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1093</v>
-      </c>
       <c r="D47" t="n">
-        <v>2.06808526523506</v>
+        <v>2.770287297577312</v>
       </c>
       <c r="E47" t="n">
-        <v>1.394499518134981</v>
+        <v>2.096701550477233</v>
       </c>
       <c r="F47" t="n">
         <v>-0.6735857471000791</v>
       </c>
       <c r="G47" t="n">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H47" t="n">
-        <v>31.50527664839581</v>
+        <v>71.01200198809499</v>
       </c>
       <c r="I47" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="J47" t="n">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="K47" t="n">
-        <v>128.9500497916103</v>
+        <v>216.8523269794979</v>
       </c>
       <c r="L47" t="n">
-        <v>7.690299879966314</v>
+        <v>10.30148051928098</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4476,16 +4476,16 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.8630343161671169</v>
+        <v>0.8139937408543799</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.3168316831683168</v>
+        <v>0.5795454545454546</v>
       </c>
       <c r="R47" t="n">
-        <v>0.359701236129698</v>
+        <v>0.3707262316201509</v>
       </c>
       <c r="S47" t="n">
-        <v>0.7960497137917473</v>
+        <v>0.8904965968805488</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="U47" t="n">
-        <v>968</v>
+        <v>1019</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4513,40 +4513,40 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2290</v>
+        <v>960</v>
       </c>
       <c r="B48" t="n">
-        <v>2315</v>
+        <v>992</v>
       </c>
       <c r="C48" t="n">
-        <v>2387</v>
+        <v>1093</v>
       </c>
       <c r="D48" t="n">
-        <v>2.98887429204512</v>
+        <v>2.06808526523506</v>
       </c>
       <c r="E48" t="n">
-        <v>2.31528854494504</v>
+        <v>1.394499518134981</v>
       </c>
       <c r="F48" t="n">
         <v>-0.6735857471000791</v>
       </c>
       <c r="G48" t="n">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="H48" t="n">
-        <v>24.41151806305788</v>
+        <v>31.50527664839581</v>
       </c>
       <c r="I48" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J48" t="n">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="K48" t="n">
-        <v>179.0064889191524</v>
+        <v>128.9500497916103</v>
       </c>
       <c r="L48" t="n">
-        <v>11.11430945122877</v>
+        <v>7.690299879966314</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4562,16 +4562,16 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.8970748351399649</v>
+        <v>0.8630343161671169</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.3472222222222222</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="R48" t="n">
-        <v>0.4617543400171706</v>
+        <v>0.359701236129698</v>
       </c>
       <c r="S48" t="n">
-        <v>0.9858290782727884</v>
+        <v>0.7960497137917473</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         </is>
       </c>
       <c r="U48" t="n">
-        <v>969</v>
+        <v>1020</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -4599,40 +4599,40 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>718</v>
+        <v>2290</v>
       </c>
       <c r="B49" t="n">
-        <v>781</v>
+        <v>2315</v>
       </c>
       <c r="C49" t="n">
-        <v>860</v>
+        <v>2387</v>
       </c>
       <c r="D49" t="n">
-        <v>2.435232376673856</v>
+        <v>2.98887429204512</v>
       </c>
       <c r="E49" t="n">
-        <v>1.723037444284498</v>
+        <v>2.31528854494504</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.712194932389358</v>
+        <v>-0.6735857471000791</v>
       </c>
       <c r="G49" t="n">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="H49" t="n">
-        <v>80.83190589307492</v>
+        <v>24.41151806305788</v>
       </c>
       <c r="I49" t="n">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="J49" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K49" t="n">
-        <v>219.544596054908</v>
+        <v>179.0064889191524</v>
       </c>
       <c r="L49" t="n">
-        <v>6.492654752839824</v>
+        <v>11.11430945122877</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4648,24 +4648,24 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.5963806207433437</v>
+        <v>0.8970748351399649</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.7974683544303798</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="R49" t="n">
-        <v>0.1442335339376156</v>
+        <v>0.4617543400171706</v>
       </c>
       <c r="S49" t="n">
-        <v>0.894827807595863</v>
+        <v>0.9858290782727884</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U49" t="n">
-        <v>970</v>
+        <v>1021</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -4685,40 +4685,40 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
+        <v>718</v>
+      </c>
+      <c r="B50" t="n">
+        <v>781</v>
+      </c>
+      <c r="C50" t="n">
         <v>860</v>
       </c>
-      <c r="B50" t="n">
-        <v>892</v>
-      </c>
-      <c r="C50" t="n">
-        <v>951</v>
-      </c>
       <c r="D50" t="n">
-        <v>2.514315434791586</v>
+        <v>2.435232376673856</v>
       </c>
       <c r="E50" t="n">
-        <v>1.802120502402228</v>
+        <v>1.723037444284498</v>
       </c>
       <c r="F50" t="n">
         <v>-0.712194932389358</v>
       </c>
       <c r="G50" t="n">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="H50" t="n">
-        <v>72.05112671438872</v>
+        <v>80.83190589307492</v>
       </c>
       <c r="I50" t="n">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="J50" t="n">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="K50" t="n">
-        <v>147.6701719918603</v>
+        <v>219.544596054908</v>
       </c>
       <c r="L50" t="n">
-        <v>6.703500747692477</v>
+        <v>6.492654752839824</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -4734,16 +4734,16 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.7846878983951322</v>
+        <v>0.5963806207433437</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.5423728813559322</v>
+        <v>0.7974683544303798</v>
       </c>
       <c r="R50" t="n">
-        <v>0.1807206432459326</v>
+        <v>0.1442335339376156</v>
       </c>
       <c r="S50" t="n">
-        <v>0.9913503554922937</v>
+        <v>0.894827807595863</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         </is>
       </c>
       <c r="U50" t="n">
-        <v>971</v>
+        <v>1022</v>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -4771,40 +4771,40 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2104</v>
+        <v>860</v>
       </c>
       <c r="B51" t="n">
-        <v>2130</v>
+        <v>892</v>
       </c>
       <c r="C51" t="n">
-        <v>2265</v>
+        <v>951</v>
       </c>
       <c r="D51" t="n">
-        <v>2.694183768966149</v>
+        <v>2.514315434791586</v>
       </c>
       <c r="E51" t="n">
-        <v>1.981988836576791</v>
+        <v>1.802120502402228</v>
       </c>
       <c r="F51" t="n">
         <v>-0.712194932389358</v>
       </c>
       <c r="G51" t="n">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="H51" t="n">
-        <v>29.48349797876745</v>
+        <v>72.05112671438872</v>
       </c>
       <c r="I51" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J51" t="n">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="K51" t="n">
-        <v>278.3104430213112</v>
+        <v>147.6701719918603</v>
       </c>
       <c r="L51" t="n">
-        <v>7.183053748855725</v>
+        <v>6.703500747692477</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -4820,16 +4820,16 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.7473392080829759</v>
+        <v>0.7846878983951322</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.1925925925925926</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="R51" t="n">
-        <v>0.2235161984613092</v>
+        <v>0.1807206432459326</v>
       </c>
       <c r="S51" t="n">
-        <v>0.5052188825522954</v>
+        <v>0.9913503554922937</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         </is>
       </c>
       <c r="U51" t="n">
-        <v>972</v>
+        <v>1023</v>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -4857,40 +4857,40 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>965</v>
+        <v>1752</v>
       </c>
       <c r="B52" t="n">
-        <v>986</v>
+        <v>1785</v>
       </c>
       <c r="C52" t="n">
-        <v>1032</v>
+        <v>1843</v>
       </c>
       <c r="D52" t="n">
-        <v>2.718529841166962</v>
+        <v>2.117255361159726</v>
       </c>
       <c r="E52" t="n">
-        <v>2.081623688327311</v>
+        <v>1.405060428770368</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.6369061528396509</v>
+        <v>-0.712194932389358</v>
       </c>
       <c r="G52" t="n">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="H52" t="n">
-        <v>25.48632278011394</v>
+        <v>56.50659534778833</v>
       </c>
       <c r="I52" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="J52" t="n">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="K52" t="n">
-        <v>143.0475271125375</v>
+        <v>155.6891742461969</v>
       </c>
       <c r="L52" t="n">
-        <v>7.199347354239671</v>
+        <v>5.644885562167581</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -4906,24 +4906,24 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.7997648694184347</v>
+        <v>0.6532788715498002</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.4565217391304348</v>
+        <v>0.5689655172413793</v>
       </c>
       <c r="R52" t="n">
-        <v>0.09934116315772445</v>
+        <v>0.04534734487193829</v>
       </c>
       <c r="S52" t="n">
-        <v>0.9754734282633555</v>
+        <v>0.9349839240575598</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U52" t="n">
-        <v>973</v>
+        <v>1024</v>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -4943,40 +4943,40 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2461</v>
+        <v>2104</v>
       </c>
       <c r="B53" t="n">
-        <v>2488</v>
+        <v>2130</v>
       </c>
       <c r="C53" t="n">
-        <v>2622</v>
+        <v>2179</v>
       </c>
       <c r="D53" t="n">
-        <v>2.521680179243142</v>
+        <v>2.694183768966149</v>
       </c>
       <c r="E53" t="n">
-        <v>1.884774026403491</v>
+        <v>1.981988836576791</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.6369061528396509</v>
+        <v>-0.712194932389358</v>
       </c>
       <c r="G53" t="n">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="H53" t="n">
-        <v>66.64698562470676</v>
+        <v>29.48349797876745</v>
       </c>
       <c r="I53" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J53" t="n">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="K53" t="n">
-        <v>237.967205553063</v>
+        <v>150.5220233245446</v>
       </c>
       <c r="L53" t="n">
-        <v>6.67804018619112</v>
+        <v>7.183053748855725</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -4992,24 +4992,24 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.9113283148269414</v>
+        <v>0.7539585413051928</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.2014925373134328</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="R53" t="n">
-        <v>0.262325690717187</v>
+        <v>0.07762031015561607</v>
       </c>
       <c r="S53" t="n">
-        <v>0.8339003892036134</v>
+        <v>0.9880739952187113</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U53" t="n">
-        <v>974</v>
+        <v>1025</v>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -5029,40 +5029,40 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1821</v>
+        <v>965</v>
       </c>
       <c r="B54" t="n">
-        <v>1844</v>
+        <v>986</v>
       </c>
       <c r="C54" t="n">
-        <v>1873</v>
+        <v>1032</v>
       </c>
       <c r="D54" t="n">
-        <v>2.367364189184836</v>
+        <v>2.718529841166962</v>
       </c>
       <c r="E54" t="n">
-        <v>1.939070706528079</v>
+        <v>2.081623688327311</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.428293482656757</v>
+        <v>-0.6369061528396509</v>
       </c>
       <c r="G54" t="n">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H54" t="n">
-        <v>26.24270326752116</v>
+        <v>25.48632278011394</v>
       </c>
       <c r="I54" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J54" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="K54" t="n">
-        <v>69.52690940864022</v>
+        <v>143.0475271125375</v>
       </c>
       <c r="L54" t="n">
-        <v>10.23361422446671</v>
+        <v>7.199347354239671</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5078,24 +5078,24 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.7633945275569338</v>
+        <v>0.7997648694184347</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.7931034482758621</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="R54" t="n">
-        <v>0.2085028110230988</v>
+        <v>0.09934116315772445</v>
       </c>
       <c r="S54" t="n">
-        <v>0.9458404026100822</v>
+        <v>0.9754734282633555</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U54" t="n">
-        <v>975</v>
+        <v>1026</v>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -5115,40 +5115,40 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1873</v>
+        <v>2461</v>
       </c>
       <c r="B55" t="n">
-        <v>1899</v>
+        <v>2488</v>
       </c>
       <c r="C55" t="n">
-        <v>1975</v>
+        <v>2622</v>
       </c>
       <c r="D55" t="n">
-        <v>1.234803367172055</v>
+        <v>2.521680179243142</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8065098845152977</v>
+        <v>1.884774026403491</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.428293482656757</v>
+        <v>-0.6369061528396509</v>
       </c>
       <c r="G55" t="n">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="H55" t="n">
-        <v>25.83086390048402</v>
+        <v>66.64698562470676</v>
       </c>
       <c r="I55" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J55" t="n">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="K55" t="n">
-        <v>68.0324090044287</v>
+        <v>237.967205553063</v>
       </c>
       <c r="L55" t="n">
-        <v>5.33779355134307</v>
+        <v>6.67804018619112</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5164,24 +5164,24 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.7780981475927163</v>
+        <v>0.9113283148269414</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.2014925373134328</v>
       </c>
       <c r="R55" t="n">
-        <v>0.5038184878388697</v>
+        <v>0.262325690717187</v>
       </c>
       <c r="S55" t="n">
-        <v>0.7865189260747262</v>
+        <v>0.8339003892036134</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U55" t="n">
-        <v>976</v>
+        <v>1027</v>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -5201,40 +5201,40 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2107</v>
+        <v>1821</v>
       </c>
       <c r="B56" t="n">
-        <v>2131</v>
+        <v>1844</v>
       </c>
       <c r="C56" t="n">
-        <v>2224</v>
+        <v>1873</v>
       </c>
       <c r="D56" t="n">
-        <v>6.028619491534851</v>
+        <v>2.367364189184836</v>
       </c>
       <c r="E56" t="n">
-        <v>5.600326008878094</v>
+        <v>1.939070706528079</v>
       </c>
       <c r="F56" t="n">
         <v>-0.428293482656757</v>
       </c>
       <c r="G56" t="n">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="H56" t="n">
-        <v>102.3229324677859</v>
+        <v>26.24270326752116</v>
       </c>
       <c r="I56" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J56" t="n">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="K56" t="n">
-        <v>450.2280693044165</v>
+        <v>69.52690940864022</v>
       </c>
       <c r="L56" t="n">
-        <v>26.06044581746921</v>
+        <v>10.23361422446671</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5250,16 +5250,16 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.9113169882915995</v>
+        <v>0.7633945275569338</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.2580645161290323</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="R56" t="n">
-        <v>0.3417158162427885</v>
+        <v>0.2085028110230988</v>
       </c>
       <c r="S56" t="n">
-        <v>0.9571787678429826</v>
+        <v>0.9458404026100822</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         </is>
       </c>
       <c r="U56" t="n">
-        <v>977</v>
+        <v>1028</v>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -5287,40 +5287,40 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1774</v>
+        <v>1873</v>
       </c>
       <c r="B57" t="n">
-        <v>1832</v>
+        <v>1899</v>
       </c>
       <c r="C57" t="n">
-        <v>1999</v>
+        <v>1975</v>
       </c>
       <c r="D57" t="n">
-        <v>5.075536377401715</v>
+        <v>1.234803367172055</v>
       </c>
       <c r="E57" t="n">
-        <v>4.588989519999799</v>
+        <v>0.8065098845152977</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.4865468574019164</v>
+        <v>-0.428293482656757</v>
       </c>
       <c r="G57" t="n">
-        <v>225</v>
+        <v>102</v>
       </c>
       <c r="H57" t="n">
-        <v>156.9049664329957</v>
+        <v>25.83086390048402</v>
       </c>
       <c r="I57" t="n">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="J57" t="n">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="K57" t="n">
-        <v>645.5126607123939</v>
+        <v>68.0324090044287</v>
       </c>
       <c r="L57" t="n">
-        <v>42.32670132141845</v>
+        <v>5.33779355134307</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -5336,24 +5336,24 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.8316159684449523</v>
+        <v>0.7780981475927163</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.3473053892215569</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="R57" t="n">
-        <v>0.4237983922743506</v>
+        <v>0.5038184878388697</v>
       </c>
       <c r="S57" t="n">
-        <v>0.9757124843819718</v>
+        <v>0.7865189260747262</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U57" t="n">
-        <v>978</v>
+        <v>1029</v>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -5373,40 +5373,40 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1999</v>
+        <v>2107</v>
       </c>
       <c r="B58" t="n">
-        <v>2028</v>
+        <v>2131</v>
       </c>
       <c r="C58" t="n">
-        <v>2065</v>
+        <v>2224</v>
       </c>
       <c r="D58" t="n">
-        <v>2.137293013175915</v>
+        <v>6.028619491534851</v>
       </c>
       <c r="E58" t="n">
-        <v>1.650746155773998</v>
+        <v>5.600326008878094</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.4865468574019164</v>
+        <v>-0.428293482656757</v>
       </c>
       <c r="G58" t="n">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="H58" t="n">
-        <v>27.67606845557248</v>
+        <v>102.3229324677859</v>
       </c>
       <c r="I58" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J58" t="n">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="K58" t="n">
-        <v>104.689162814579</v>
+        <v>450.2280693044165</v>
       </c>
       <c r="L58" t="n">
-        <v>17.82364587274662</v>
+        <v>26.06044581746921</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5422,24 +5422,24 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.7059747501075246</v>
+        <v>0.9113169882915995</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.7837837837837838</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="R58" t="n">
-        <v>0.1111312331964323</v>
+        <v>0.3417158162427885</v>
       </c>
       <c r="S58" t="n">
-        <v>0.9817381171029638</v>
+        <v>0.9571787678429826</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U58" t="n">
-        <v>979</v>
+        <v>1030</v>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -5459,40 +5459,40 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2065</v>
+        <v>1774</v>
       </c>
       <c r="B59" t="n">
-        <v>2096</v>
+        <v>1832</v>
       </c>
       <c r="C59" t="n">
-        <v>2192</v>
+        <v>1999</v>
       </c>
       <c r="D59" t="n">
-        <v>2.884853533527793</v>
+        <v>5.075536377401715</v>
       </c>
       <c r="E59" t="n">
-        <v>2.398306676125877</v>
+        <v>4.588989519999799</v>
       </c>
       <c r="F59" t="n">
         <v>-0.4865468574019164</v>
       </c>
       <c r="G59" t="n">
-        <v>127</v>
+        <v>225</v>
       </c>
       <c r="H59" t="n">
-        <v>59.20338035330315</v>
+        <v>156.9049664329957</v>
       </c>
       <c r="I59" t="n">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="J59" t="n">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="K59" t="n">
-        <v>225.0983659986972</v>
+        <v>645.5126607123939</v>
       </c>
       <c r="L59" t="n">
-        <v>24.05781867968378</v>
+        <v>42.32670132141845</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5508,16 +5508,16 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.8489274745321478</v>
+        <v>0.8316159684449523</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.3229166666666667</v>
+        <v>0.3473053892215569</v>
       </c>
       <c r="R59" t="n">
-        <v>0.1125516102007503</v>
+        <v>0.4237983922743506</v>
       </c>
       <c r="S59" t="n">
-        <v>0.9821956964985369</v>
+        <v>0.9757124843819718</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -5525,7 +5525,7 @@
         </is>
       </c>
       <c r="U59" t="n">
-        <v>980</v>
+        <v>1031</v>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -5545,40 +5545,40 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>976</v>
+        <v>1999</v>
       </c>
       <c r="B60" t="n">
-        <v>1020</v>
+        <v>2028</v>
       </c>
       <c r="C60" t="n">
-        <v>1076</v>
+        <v>2065</v>
       </c>
       <c r="D60" t="n">
-        <v>4.187512489519767</v>
+        <v>2.137293013175915</v>
       </c>
       <c r="E60" t="n">
-        <v>3.681783314794655</v>
+        <v>1.650746155773998</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.5057291747251109</v>
+        <v>-0.4865468574019164</v>
       </c>
       <c r="G60" t="n">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="H60" t="n">
-        <v>76.80623532518871</v>
+        <v>27.67606845557248</v>
       </c>
       <c r="I60" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="J60" t="n">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="K60" t="n">
-        <v>269.4901661983867</v>
+        <v>104.689162814579</v>
       </c>
       <c r="L60" t="n">
-        <v>20.55921104874082</v>
+        <v>17.82364587274662</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5594,24 +5594,24 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.6404865684319304</v>
+        <v>0.7059747501075246</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="R60" t="n">
-        <v>0.09161387558884476</v>
+        <v>0.1111312331964323</v>
       </c>
       <c r="S60" t="n">
-        <v>0.9883291152417456</v>
+        <v>0.9817381171029638</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U60" t="n">
-        <v>981</v>
+        <v>1032</v>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -5631,40 +5631,40 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1859</v>
+        <v>2065</v>
       </c>
       <c r="B61" t="n">
-        <v>1910</v>
+        <v>2096</v>
       </c>
       <c r="C61" t="n">
-        <v>1995</v>
+        <v>2192</v>
       </c>
       <c r="D61" t="n">
-        <v>1.950718267526465</v>
+        <v>2.884853533527793</v>
       </c>
       <c r="E61" t="n">
-        <v>1.355655589227677</v>
+        <v>2.398306676125877</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.5950626782987882</v>
+        <v>-0.4865468574019164</v>
       </c>
       <c r="G61" t="n">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="H61" t="n">
-        <v>64.82126709145655</v>
+        <v>59.20338035330315</v>
       </c>
       <c r="I61" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="J61" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="K61" t="n">
-        <v>141.799790165623</v>
+        <v>225.0983659986972</v>
       </c>
       <c r="L61" t="n">
-        <v>4.761465881766573</v>
+        <v>24.05781867968378</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -5680,24 +5680,24 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.684589610244573</v>
+        <v>0.8489274745321478</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.6</v>
+        <v>0.3229166666666667</v>
       </c>
       <c r="R61" t="n">
-        <v>0.2935264069772711</v>
+        <v>0.1125516102007503</v>
       </c>
       <c r="S61" t="n">
-        <v>0.8445497119057537</v>
+        <v>0.9821956964985369</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U61" t="n">
-        <v>982</v>
+        <v>1033</v>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -5717,40 +5717,40 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2057</v>
+        <v>976</v>
       </c>
       <c r="B62" t="n">
-        <v>2091</v>
+        <v>1020</v>
       </c>
       <c r="C62" t="n">
-        <v>2146</v>
+        <v>1076</v>
       </c>
       <c r="D62" t="n">
-        <v>2.782346571952291</v>
+        <v>4.187512489519767</v>
       </c>
       <c r="E62" t="n">
-        <v>2.157768406157361</v>
+        <v>3.681783314794655</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.6245781657949306</v>
+        <v>-0.5057291747251109</v>
       </c>
       <c r="G62" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="H62" t="n">
-        <v>148.8282053070511</v>
+        <v>76.80623532518871</v>
       </c>
       <c r="I62" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="J62" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K62" t="n">
-        <v>168.7332755309814</v>
+        <v>269.4901661983867</v>
       </c>
       <c r="L62" t="n">
-        <v>8.751487462717174</v>
+        <v>20.55921104874082</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -5766,24 +5766,24 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.7664182333611884</v>
+        <v>0.6404865684319304</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.6181818181818182</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="R62" t="n">
-        <v>0.2464971044212832</v>
+        <v>0.09161387558884476</v>
       </c>
       <c r="S62" t="n">
-        <v>0.9376002893745512</v>
+        <v>0.9883291152417456</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>n24</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U62" t="n">
-        <v>983</v>
+        <v>1034</v>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -5803,73 +5803,73 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>63</v>
+        <v>1859</v>
       </c>
       <c r="B63" t="n">
-        <v>89</v>
+        <v>1910</v>
       </c>
       <c r="C63" t="n">
-        <v>321</v>
+        <v>1995</v>
       </c>
       <c r="D63" t="n">
-        <v>2.063147399342049</v>
+        <v>1.950718267526465</v>
       </c>
       <c r="E63" t="n">
-        <v>1.621307676190207</v>
+        <v>1.355655589227677</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.4418397231518426</v>
+        <v>-0.5950626782987882</v>
       </c>
       <c r="G63" t="n">
-        <v>258</v>
+        <v>136</v>
       </c>
       <c r="H63" t="n">
-        <v>408.4530875958578</v>
+        <v>64.82126709145655</v>
       </c>
       <c r="I63" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="J63" t="n">
-        <v>232</v>
+        <v>85</v>
       </c>
       <c r="K63" t="n">
-        <v>358.8432512034552</v>
+        <v>141.799790165623</v>
       </c>
       <c r="L63" t="n">
-        <v>4.655285956932896</v>
+        <v>4.761465881766573</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(289), 'value': np.float64(1.2581161873826356), 'amplitude': np.float64(1.6999559105344781), 'start_idx': np.int64(272), 'end_idx': np.int64(320), 'duration': np.float64(48.0), 'fwhm': np.float64(34.23595012610235), 'rise_time': np.float64(17.0), 'decay_time': np.float64(31.0), 'auc': np.float64(67.54460660244655)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.7007756671234038</v>
+        <v>0.684589610244573</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.1120689655172414</v>
+        <v>0.6</v>
       </c>
       <c r="R63" t="n">
-        <v>0.3663375350954777</v>
+        <v>0.2935264069772711</v>
       </c>
       <c r="S63" t="n">
-        <v>0.3730290584271803</v>
+        <v>0.8445497119057537</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U63" t="n">
-        <v>984</v>
+        <v>1035</v>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -5889,40 +5889,40 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1793</v>
+        <v>2057</v>
       </c>
       <c r="B64" t="n">
-        <v>1821</v>
+        <v>2091</v>
       </c>
       <c r="C64" t="n">
-        <v>1864</v>
+        <v>2146</v>
       </c>
       <c r="D64" t="n">
-        <v>5.550658965690424</v>
+        <v>2.782346571952291</v>
       </c>
       <c r="E64" t="n">
-        <v>5.108819242538582</v>
+        <v>2.157768406157361</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.4418397231518426</v>
+        <v>-0.6245781657949306</v>
       </c>
       <c r="G64" t="n">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="H64" t="n">
-        <v>95.67597599163901</v>
+        <v>148.8282053070511</v>
       </c>
       <c r="I64" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J64" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="K64" t="n">
-        <v>258.7066477141134</v>
+        <v>168.7332755309814</v>
       </c>
       <c r="L64" t="n">
-        <v>12.52450733425193</v>
+        <v>8.751487462717174</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -5938,24 +5938,24 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.7714487010292403</v>
+        <v>0.7664182333611884</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.6511627906976745</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="R64" t="n">
-        <v>0.3369834832042392</v>
+        <v>0.2464971044212832</v>
       </c>
       <c r="S64" t="n">
-        <v>0.9855525531786844</v>
+        <v>0.9376002893745512</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n24</t>
         </is>
       </c>
       <c r="U64" t="n">
-        <v>985</v>
+        <v>1036</v>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -5975,73 +5975,73 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>1606</v>
       </c>
       <c r="B65" t="n">
-        <v>72</v>
+        <v>1623</v>
       </c>
       <c r="C65" t="n">
-        <v>319</v>
+        <v>1658</v>
       </c>
       <c r="D65" t="n">
-        <v>1.028260525996886</v>
+        <v>4.5549793977567</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5160516579904045</v>
+        <v>4.051020067695438</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.5122088680064816</v>
+        <v>-0.5039593300612619</v>
       </c>
       <c r="G65" t="n">
-        <v>319</v>
+        <v>52</v>
       </c>
       <c r="H65" t="n">
-        <v>32.76569489581389</v>
+        <v>200.1598627410362</v>
       </c>
       <c r="I65" t="n">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="J65" t="n">
-        <v>247</v>
+        <v>35</v>
       </c>
       <c r="K65" t="n">
-        <v>165.8805650947391</v>
+        <v>187.1825589777839</v>
       </c>
       <c r="L65" t="n">
-        <v>5.024763713769558</v>
+        <v>17.65691934427134</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(203), 'value': np.float64(0.06812721902590554), 'amplitude': np.float64(0.5803360870323871), 'start_idx': np.int64(183), 'end_idx': np.int64(225), 'duration': np.float64(42.0), 'fwhm': np.float64(69.22519855705534), 'rise_time': np.float64(20.0), 'decay_time': np.float64(22.0), 'auc': np.float64(18.10229411010233)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.5878909354547727</v>
+        <v>0.8097707595017251</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.291497975708502</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="R65" t="n">
-        <v>0.4711191501097754</v>
+        <v>0.2583523207125939</v>
       </c>
       <c r="S65" t="n">
-        <v>0.5026743747247907</v>
+        <v>0.9721383939560256</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U65" t="n">
-        <v>986</v>
+        <v>1037</v>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -6061,73 +6061,73 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2537</v>
+        <v>63</v>
       </c>
       <c r="B66" t="n">
-        <v>2568</v>
+        <v>89</v>
       </c>
       <c r="C66" t="n">
-        <v>2682</v>
+        <v>321</v>
       </c>
       <c r="D66" t="n">
-        <v>3.570200062804743</v>
+        <v>2.063147399342049</v>
       </c>
       <c r="E66" t="n">
-        <v>3.057991194798261</v>
+        <v>1.621307676190207</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.5122088680064816</v>
+        <v>-0.4418397231518426</v>
       </c>
       <c r="G66" t="n">
-        <v>145</v>
+        <v>258</v>
       </c>
       <c r="H66" t="n">
-        <v>57.80659950266408</v>
+        <v>408.4530875958578</v>
       </c>
       <c r="I66" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J66" t="n">
-        <v>114</v>
+        <v>232</v>
       </c>
       <c r="K66" t="n">
-        <v>242.6061713145431</v>
+        <v>358.8432512034552</v>
       </c>
       <c r="L66" t="n">
-        <v>17.44636818484015</v>
+        <v>4.655285956932896</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(289), 'value': np.float64(1.2581161873826356), 'amplitude': np.float64(1.6999559105344781), 'start_idx': np.int64(272), 'end_idx': np.int64(320), 'duration': np.float64(48.0), 'fwhm': np.float64(34.23595012610235), 'rise_time': np.float64(17.0), 'decay_time': np.float64(31.0), 'auc': np.float64(67.54460660244655)}]</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.969128003746307</v>
+        <v>0.7007756671234038</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.2719298245614035</v>
+        <v>0.1120689655172414</v>
       </c>
       <c r="R66" t="n">
-        <v>0.2984465817351895</v>
+        <v>0.3663375350954777</v>
       </c>
       <c r="S66" t="n">
-        <v>0.9065134777631396</v>
+        <v>0.3730290584271803</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U66" t="n">
-        <v>987</v>
+        <v>1038</v>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -6147,40 +6147,40 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2682</v>
+        <v>1793</v>
       </c>
       <c r="B67" t="n">
-        <v>2714</v>
+        <v>1821</v>
       </c>
       <c r="C67" t="n">
-        <v>2912</v>
+        <v>1864</v>
       </c>
       <c r="D67" t="n">
-        <v>4.354577406399438</v>
+        <v>5.550658965690424</v>
       </c>
       <c r="E67" t="n">
-        <v>3.842368538392956</v>
+        <v>5.108819242538582</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.5122088680064816</v>
+        <v>-0.4418397231518426</v>
       </c>
       <c r="G67" t="n">
-        <v>230</v>
+        <v>71</v>
       </c>
       <c r="H67" t="n">
-        <v>54.74717721215256</v>
+        <v>95.67597599163901</v>
       </c>
       <c r="I67" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J67" t="n">
-        <v>198</v>
+        <v>43</v>
       </c>
       <c r="K67" t="n">
-        <v>333.2418981191856</v>
+        <v>258.7066477141134</v>
       </c>
       <c r="L67" t="n">
-        <v>21.2793567265101</v>
+        <v>12.52450733425193</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6196,24 +6196,24 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.8260841619121728</v>
+        <v>0.7714487010292403</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.1616161616161616</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="R67" t="n">
-        <v>0.4276202920884734</v>
+        <v>0.3369834832042392</v>
       </c>
       <c r="S67" t="n">
-        <v>0.8033431590573819</v>
+        <v>0.9855525531786844</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U67" t="n">
-        <v>988</v>
+        <v>1039</v>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -6233,73 +6233,73 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2475</v>
+        <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>2521</v>
+        <v>72</v>
       </c>
       <c r="C68" t="n">
-        <v>2614</v>
+        <v>319</v>
       </c>
       <c r="D68" t="n">
-        <v>2.631696181337106</v>
+        <v>1.028260525996886</v>
       </c>
       <c r="E68" t="n">
-        <v>2.152521726104831</v>
+        <v>0.5160516579904045</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4791744552322756</v>
+        <v>-0.5122088680064816</v>
       </c>
       <c r="G68" t="n">
-        <v>139</v>
+        <v>319</v>
       </c>
       <c r="H68" t="n">
-        <v>90.72790101909095</v>
+        <v>32.76569489581389</v>
       </c>
       <c r="I68" t="n">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="J68" t="n">
-        <v>93</v>
+        <v>247</v>
       </c>
       <c r="K68" t="n">
-        <v>205.9885281424253</v>
+        <v>165.8805650947391</v>
       </c>
       <c r="L68" t="n">
-        <v>5.453625727147351</v>
+        <v>5.024763713769558</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(203), 'value': np.float64(0.06812721902590554), 'amplitude': np.float64(0.5803360870323871), 'start_idx': np.int64(183), 'end_idx': np.int64(225), 'duration': np.float64(42.0), 'fwhm': np.float64(69.22519855705534), 'rise_time': np.float64(20.0), 'decay_time': np.float64(22.0), 'auc': np.float64(18.10229411010233)}]</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.8302362955369661</v>
+        <v>0.5878909354547727</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.4946236559139785</v>
+        <v>0.291497975708502</v>
       </c>
       <c r="R68" t="n">
-        <v>0.3533260890568349</v>
+        <v>0.4711191501097754</v>
       </c>
       <c r="S68" t="n">
-        <v>0.9170062664345551</v>
+        <v>0.5026743747247907</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U68" t="n">
-        <v>989</v>
+        <v>1040</v>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -6319,40 +6319,40 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2712</v>
+        <v>2537</v>
       </c>
       <c r="B69" t="n">
-        <v>2731</v>
+        <v>2568</v>
       </c>
       <c r="C69" t="n">
-        <v>2764</v>
+        <v>2682</v>
       </c>
       <c r="D69" t="n">
-        <v>2.068476786934077</v>
+        <v>3.570200062804743</v>
       </c>
       <c r="E69" t="n">
-        <v>1.589302331701801</v>
+        <v>3.057991194798261</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.4791744552322756</v>
+        <v>-0.5122088680064816</v>
       </c>
       <c r="G69" t="n">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="H69" t="n">
-        <v>25.13813761960546</v>
+        <v>57.80659950266408</v>
       </c>
       <c r="I69" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J69" t="n">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="K69" t="n">
-        <v>72.72694258486997</v>
+        <v>242.6061713145431</v>
       </c>
       <c r="L69" t="n">
-        <v>4.286474366315074</v>
+        <v>17.44636818484015</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6368,24 +6368,24 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.791178801519701</v>
+        <v>0.969128003746307</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.2719298245614035</v>
       </c>
       <c r="R69" t="n">
-        <v>0.2540837794690816</v>
+        <v>0.2984465817351895</v>
       </c>
       <c r="S69" t="n">
-        <v>0.7569848200159764</v>
+        <v>0.9065134777631396</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U69" t="n">
-        <v>990</v>
+        <v>1041</v>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -6405,40 +6405,40 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1075</v>
+        <v>2682</v>
       </c>
       <c r="B70" t="n">
-        <v>1147</v>
+        <v>2714</v>
       </c>
       <c r="C70" t="n">
-        <v>1297</v>
+        <v>2912</v>
       </c>
       <c r="D70" t="n">
-        <v>3.382384275692085</v>
+        <v>4.354577406399438</v>
       </c>
       <c r="E70" t="n">
-        <v>2.698484233793476</v>
+        <v>3.842368538392956</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.6839000418986089</v>
+        <v>-0.5122088680064816</v>
       </c>
       <c r="G70" t="n">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="H70" t="n">
-        <v>282.8500063515457</v>
+        <v>54.74717721215256</v>
       </c>
       <c r="I70" t="n">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="J70" t="n">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="K70" t="n">
-        <v>452.4895855580484</v>
+        <v>333.2418981191856</v>
       </c>
       <c r="L70" t="n">
-        <v>10.57620817385419</v>
+        <v>21.2793567265101</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6454,24 +6454,24 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.6433034495053954</v>
+        <v>0.8260841619121728</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.48</v>
+        <v>0.1616161616161616</v>
       </c>
       <c r="R70" t="n">
-        <v>0.3261907284598889</v>
+        <v>0.4276202920884734</v>
       </c>
       <c r="S70" t="n">
-        <v>0.8375875873874695</v>
+        <v>0.8033431590573819</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U70" t="n">
-        <v>991</v>
+        <v>1042</v>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -6491,73 +6491,73 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1297</v>
+        <v>2475</v>
       </c>
       <c r="B71" t="n">
-        <v>1319</v>
+        <v>2521</v>
       </c>
       <c r="C71" t="n">
-        <v>1401</v>
+        <v>2614</v>
       </c>
       <c r="D71" t="n">
-        <v>1.238455421611777</v>
+        <v>2.631696181337106</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5545553797131679</v>
+        <v>2.152521726104831</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.6839000418986089</v>
+        <v>-0.4791744552322756</v>
       </c>
       <c r="G71" t="n">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="H71" t="n">
-        <v>25.08538416192391</v>
+        <v>90.72790101909095</v>
       </c>
       <c r="I71" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="J71" t="n">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K71" t="n">
-        <v>68.63746530767199</v>
+        <v>205.9885281424253</v>
       </c>
       <c r="L71" t="n">
-        <v>3.872464298966868</v>
+        <v>5.453625727147351</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(1373), 'value': np.float64(0.09184191360802693), 'amplitude': np.float64(0.7757419555066358), 'start_idx': np.int64(1345), 'end_idx': np.int64(1400), 'duration': np.float64(55.0), 'fwhm': np.float64(26.70347176110522), 'rise_time': np.float64(28.0), 'decay_time': np.float64(27.0), 'auc': np.float64(28.759504186586486)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.8036614086021751</v>
+        <v>0.8302362955369661</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.2682926829268293</v>
+        <v>0.4946236559139785</v>
       </c>
       <c r="R71" t="n">
-        <v>0.2973023601009878</v>
+        <v>0.3533260890568349</v>
       </c>
       <c r="S71" t="n">
-        <v>0.4551143864037633</v>
+        <v>0.9170062664345551</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n28</t>
         </is>
       </c>
       <c r="U71" t="n">
-        <v>992</v>
+        <v>1043</v>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -6577,40 +6577,40 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1874</v>
+        <v>2712</v>
       </c>
       <c r="B72" t="n">
-        <v>1892</v>
+        <v>2731</v>
       </c>
       <c r="C72" t="n">
-        <v>1965</v>
+        <v>2764</v>
       </c>
       <c r="D72" t="n">
-        <v>2.289149472879338</v>
+        <v>2.068476786934077</v>
       </c>
       <c r="E72" t="n">
-        <v>1.605249430980729</v>
+        <v>1.589302331701801</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.6839000418986089</v>
+        <v>-0.4791744552322756</v>
       </c>
       <c r="G72" t="n">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="H72" t="n">
-        <v>16.86118113327757</v>
+        <v>25.13813761960546</v>
       </c>
       <c r="I72" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J72" t="n">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K72" t="n">
-        <v>154.4557935311328</v>
+        <v>72.72694258486997</v>
       </c>
       <c r="L72" t="n">
-        <v>7.157826962546007</v>
+        <v>4.286474366315074</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -6626,24 +6626,24 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.7423407828455525</v>
+        <v>0.791178801519701</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.2465753424657534</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="R72" t="n">
-        <v>0.170994623663389</v>
+        <v>0.2540837794690816</v>
       </c>
       <c r="S72" t="n">
-        <v>0.5585976174703324</v>
+        <v>0.7569848200159764</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n28</t>
         </is>
       </c>
       <c r="U72" t="n">
-        <v>993</v>
+        <v>1044</v>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -6663,40 +6663,40 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2465</v>
+        <v>1075</v>
       </c>
       <c r="B73" t="n">
-        <v>2499</v>
+        <v>1147</v>
       </c>
       <c r="C73" t="n">
-        <v>2573</v>
+        <v>1297</v>
       </c>
       <c r="D73" t="n">
-        <v>2.620338342076427</v>
+        <v>3.382384275692085</v>
       </c>
       <c r="E73" t="n">
-        <v>1.936438300177818</v>
+        <v>2.698484233793476</v>
       </c>
       <c r="F73" t="n">
         <v>-0.6839000418986089</v>
       </c>
       <c r="G73" t="n">
-        <v>108</v>
+        <v>222</v>
       </c>
       <c r="H73" t="n">
-        <v>85.79096220156316</v>
+        <v>282.8500063515457</v>
       </c>
       <c r="I73" t="n">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="J73" t="n">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="K73" t="n">
-        <v>200.3102824559594</v>
+        <v>452.4895855580484</v>
       </c>
       <c r="L73" t="n">
-        <v>8.193404868541053</v>
+        <v>10.57620817385419</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -6712,16 +6712,16 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.6812927968953062</v>
+        <v>0.6433034495053954</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.4594594594594595</v>
+        <v>0.48</v>
       </c>
       <c r="R73" t="n">
-        <v>0.06804571751623635</v>
+        <v>0.3261907284598889</v>
       </c>
       <c r="S73" t="n">
-        <v>0.8517623206506399</v>
+        <v>0.8375875873874695</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
@@ -6729,7 +6729,7 @@
         </is>
       </c>
       <c r="U73" t="n">
-        <v>994</v>
+        <v>1045</v>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -6749,73 +6749,73 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>717</v>
+        <v>1297</v>
       </c>
       <c r="B74" t="n">
-        <v>777</v>
+        <v>1319</v>
       </c>
       <c r="C74" t="n">
-        <v>871</v>
+        <v>1401</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5199657433137227</v>
+        <v>1.238455421611777</v>
       </c>
       <c r="E74" t="n">
-        <v>0.02150677382239076</v>
+        <v>0.5545553797131679</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.4984589694913319</v>
+        <v>-0.6839000418986089</v>
       </c>
       <c r="G74" t="n">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="H74" t="n">
-        <v>32.09194483072304</v>
+        <v>25.08538416192391</v>
       </c>
       <c r="I74" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="J74" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K74" t="n">
-        <v>32.0687405370104</v>
+        <v>68.63746530767199</v>
       </c>
       <c r="L74" t="n">
-        <v>3.453343094287742</v>
+        <v>3.872464298966868</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(1373), 'value': np.float64(0.09184191360802693), 'amplitude': np.float64(0.7757419555066358), 'start_idx': np.int64(1345), 'end_idx': np.int64(1400), 'duration': np.float64(55.0), 'fwhm': np.float64(26.70347176110522), 'rise_time': np.float64(28.0), 'decay_time': np.float64(27.0), 'auc': np.float64(28.759504186586486)}]</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.6063129547228966</v>
+        <v>0.8036614086021751</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.6382978723404256</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="R74" t="n">
-        <v>0.5713852108332207</v>
+        <v>0.2973023601009878</v>
       </c>
       <c r="S74" t="n">
-        <v>0.9254080877820116</v>
+        <v>0.4551143864037633</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U74" t="n">
-        <v>995</v>
+        <v>1046</v>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -6835,40 +6835,40 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2407</v>
+        <v>1874</v>
       </c>
       <c r="B75" t="n">
-        <v>2429</v>
+        <v>1892</v>
       </c>
       <c r="C75" t="n">
-        <v>2467</v>
+        <v>1965</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9719555028087346</v>
+        <v>2.289149472879338</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4734965333174025</v>
+        <v>1.605249430980729</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.4984589694913319</v>
+        <v>-0.6839000418986089</v>
       </c>
       <c r="G75" t="n">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="H75" t="n">
-        <v>74.78099161546561</v>
+        <v>16.86118113327757</v>
       </c>
       <c r="I75" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J75" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K75" t="n">
-        <v>36.97124127196277</v>
+        <v>154.4557935311328</v>
       </c>
       <c r="L75" t="n">
-        <v>6.455224919604681</v>
+        <v>7.157826962546007</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -6884,24 +6884,24 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.7906344680063193</v>
+        <v>0.7423407828455525</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.2465753424657534</v>
       </c>
       <c r="R75" t="n">
-        <v>0.2977595935832881</v>
+        <v>0.170994623663389</v>
       </c>
       <c r="S75" t="n">
-        <v>0.9714879561615684</v>
+        <v>0.5585976174703324</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U75" t="n">
-        <v>996</v>
+        <v>1047</v>
       </c>
       <c r="V75" t="inlineStr">
         <is>
@@ -6921,40 +6921,40 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2467</v>
+        <v>1965</v>
       </c>
       <c r="B76" t="n">
-        <v>2503</v>
+        <v>1997</v>
       </c>
       <c r="C76" t="n">
-        <v>2571</v>
+        <v>2050</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7459672399979701</v>
+        <v>1.982276161029825</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2475082705066381</v>
+        <v>1.298376119131216</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.4984589694913319</v>
+        <v>-0.6839000418986089</v>
       </c>
       <c r="G76" t="n">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="H76" t="n">
-        <v>75.73938438161258</v>
+        <v>44.08181081303655</v>
       </c>
       <c r="I76" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J76" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="K76" t="n">
-        <v>56.39137724211425</v>
+        <v>117.8886868614903</v>
       </c>
       <c r="L76" t="n">
-        <v>4.954327953212086</v>
+        <v>6.198280156334453</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -6970,24 +6970,24 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.6693989021568488</v>
+        <v>0.7201284763834034</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="R76" t="n">
-        <v>0.1386864947251545</v>
+        <v>0.1324827389147827</v>
       </c>
       <c r="S76" t="n">
-        <v>0.6040835625708663</v>
+        <v>0.8647545601691516</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U76" t="n">
-        <v>997</v>
+        <v>1048</v>
       </c>
       <c r="V76" t="inlineStr">
         <is>
@@ -7007,40 +7007,40 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2615</v>
+        <v>2465</v>
       </c>
       <c r="B77" t="n">
-        <v>2641</v>
+        <v>2499</v>
       </c>
       <c r="C77" t="n">
-        <v>2676</v>
+        <v>2573</v>
       </c>
       <c r="D77" t="n">
-        <v>3.579516474231492</v>
+        <v>2.620338342076427</v>
       </c>
       <c r="E77" t="n">
-        <v>3.08105750474016</v>
+        <v>1.936438300177818</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.4984589694913319</v>
+        <v>-0.6839000418986089</v>
       </c>
       <c r="G77" t="n">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="H77" t="n">
-        <v>30.21958768930563</v>
+        <v>85.79096220156316</v>
       </c>
       <c r="I77" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J77" t="n">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="K77" t="n">
-        <v>183.5977400463509</v>
+        <v>200.3102824559594</v>
       </c>
       <c r="L77" t="n">
-        <v>23.77329402202235</v>
+        <v>8.193404868541053</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7056,24 +7056,24 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.6383142207394186</v>
+        <v>0.6812927968953062</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.7428571428571429</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="R77" t="n">
-        <v>0.04767432500366948</v>
+        <v>0.06804571751623635</v>
       </c>
       <c r="S77" t="n">
-        <v>0.9855465285867556</v>
+        <v>0.8517623206506399</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>n30</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U77" t="n">
-        <v>998</v>
+        <v>1049</v>
       </c>
       <c r="V77" t="inlineStr">
         <is>
@@ -7093,40 +7093,40 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2676</v>
+        <v>280</v>
       </c>
       <c r="B78" t="n">
-        <v>2722</v>
+        <v>346</v>
       </c>
       <c r="C78" t="n">
-        <v>2874</v>
+        <v>433</v>
       </c>
       <c r="D78" t="n">
-        <v>4.031965701534914</v>
+        <v>0.9893035105311506</v>
       </c>
       <c r="E78" t="n">
-        <v>3.533506732043582</v>
+        <v>0.4908445410398187</v>
       </c>
       <c r="F78" t="n">
         <v>-0.4984589694913319</v>
       </c>
       <c r="G78" t="n">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="H78" t="n">
-        <v>334.3292367346335</v>
+        <v>312.8273693025193</v>
       </c>
       <c r="I78" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="J78" t="n">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="K78" t="n">
-        <v>648.2000233580409</v>
+        <v>95.8586075334749</v>
       </c>
       <c r="L78" t="n">
-        <v>26.77822739449143</v>
+        <v>6.570441399609807</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7142,16 +7142,16 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.6604497567405416</v>
+        <v>0.5842229580057245</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.3026315789473684</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="R78" t="n">
-        <v>0.07223385948645016</v>
+        <v>0.4112662888572169</v>
       </c>
       <c r="S78" t="n">
-        <v>0.9010477154855181</v>
+        <v>0.8414035556080446</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         </is>
       </c>
       <c r="U78" t="n">
-        <v>999</v>
+        <v>1050</v>
       </c>
       <c r="V78" t="inlineStr">
         <is>
@@ -7179,40 +7179,40 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2874</v>
+        <v>717</v>
       </c>
       <c r="B79" t="n">
-        <v>2907</v>
+        <v>777</v>
       </c>
       <c r="C79" t="n">
-        <v>2998</v>
+        <v>871</v>
       </c>
       <c r="D79" t="n">
-        <v>2.828521287240997</v>
+        <v>0.5199657433137227</v>
       </c>
       <c r="E79" t="n">
-        <v>2.330062317749665</v>
+        <v>0.02150677382239076</v>
       </c>
       <c r="F79" t="n">
         <v>-0.4984589694913319</v>
       </c>
       <c r="G79" t="n">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="H79" t="n">
-        <v>27.99725086950093</v>
+        <v>32.09194483072304</v>
       </c>
       <c r="I79" t="n">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="J79" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K79" t="n">
-        <v>214.6374493560158</v>
+        <v>32.0687405370104</v>
       </c>
       <c r="L79" t="n">
-        <v>18.78557304965783</v>
+        <v>3.453343094287742</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
@@ -7228,16 +7228,16 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.7800656474815632</v>
+        <v>0.6063129547228966</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.3626373626373626</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="R79" t="n">
-        <v>0.4128041326227214</v>
+        <v>0.5713852108332207</v>
       </c>
       <c r="S79" t="n">
-        <v>0.8292989452307709</v>
+        <v>0.9254080877820116</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="U79" t="n">
-        <v>1000</v>
+        <v>1051</v>
       </c>
       <c r="V79" t="inlineStr">
         <is>
@@ -7265,40 +7265,40 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2439</v>
+        <v>2407</v>
       </c>
       <c r="B80" t="n">
-        <v>2469</v>
+        <v>2429</v>
       </c>
       <c r="C80" t="n">
-        <v>2518</v>
+        <v>2467</v>
       </c>
       <c r="D80" t="n">
-        <v>3.789531538338783</v>
+        <v>0.9719555028087346</v>
       </c>
       <c r="E80" t="n">
-        <v>3.264173025405068</v>
+        <v>0.4734965333174025</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.5253585129337146</v>
+        <v>-0.4984589694913319</v>
       </c>
       <c r="G80" t="n">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H80" t="n">
-        <v>87.00735740409527</v>
+        <v>74.78099161546561</v>
       </c>
       <c r="I80" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J80" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K80" t="n">
-        <v>186.2645170907281</v>
+        <v>36.97124127196277</v>
       </c>
       <c r="L80" t="n">
-        <v>9.974419987224719</v>
+        <v>6.455224919604681</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
@@ -7314,24 +7314,24 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.7822816554561079</v>
+        <v>0.7906344680063193</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.6122448979591837</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="R80" t="n">
-        <v>0.2928283782000299</v>
+        <v>0.2977595935832881</v>
       </c>
       <c r="S80" t="n">
-        <v>0.9655718118847494</v>
+        <v>0.9714879561615684</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U80" t="n">
-        <v>1001</v>
+        <v>1052</v>
       </c>
       <c r="V80" t="inlineStr">
         <is>
@@ -7351,40 +7351,40 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1169</v>
+        <v>2467</v>
       </c>
       <c r="B81" t="n">
-        <v>1217</v>
+        <v>2503</v>
       </c>
       <c r="C81" t="n">
-        <v>1326</v>
+        <v>2571</v>
       </c>
       <c r="D81" t="n">
-        <v>3.76247630954474</v>
+        <v>0.7459672399979701</v>
       </c>
       <c r="E81" t="n">
-        <v>3.22786013625167</v>
+        <v>0.2475082705066381</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.5346161732930702</v>
+        <v>-0.4984589694913319</v>
       </c>
       <c r="G81" t="n">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="H81" t="n">
-        <v>87.35363705315854</v>
+        <v>75.73938438161258</v>
       </c>
       <c r="I81" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J81" t="n">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="K81" t="n">
-        <v>358.9509071110591</v>
+        <v>56.39137724211425</v>
       </c>
       <c r="L81" t="n">
-        <v>19.38647351669819</v>
+        <v>4.954327953212086</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
@@ -7400,24 +7400,24 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.7364336484134426</v>
+        <v>0.6693989021568488</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.4403669724770642</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="R81" t="n">
-        <v>0.08757404207588783</v>
+        <v>0.1386864947251545</v>
       </c>
       <c r="S81" t="n">
-        <v>0.8937482961901138</v>
+        <v>0.6040835625708663</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>n33</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U81" t="n">
-        <v>1002</v>
+        <v>1053</v>
       </c>
       <c r="V81" t="inlineStr">
         <is>
@@ -7437,40 +7437,40 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1373</v>
+        <v>2615</v>
       </c>
       <c r="B82" t="n">
-        <v>1404</v>
+        <v>2641</v>
       </c>
       <c r="C82" t="n">
-        <v>1508</v>
+        <v>2676</v>
       </c>
       <c r="D82" t="n">
-        <v>4.098878049021364</v>
+        <v>3.579516474231492</v>
       </c>
       <c r="E82" t="n">
-        <v>3.564261875728294</v>
+        <v>3.08105750474016</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.5346161732930702</v>
+        <v>-0.4984589694913319</v>
       </c>
       <c r="G82" t="n">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="H82" t="n">
-        <v>159.786426558099</v>
+        <v>30.21958768930563</v>
       </c>
       <c r="I82" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J82" t="n">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="K82" t="n">
-        <v>391.7126499656861</v>
+        <v>183.5977400463509</v>
       </c>
       <c r="L82" t="n">
-        <v>21.11981158364907</v>
+        <v>23.77329402202235</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -7486,24 +7486,24 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.7567855402396941</v>
+        <v>0.6383142207394186</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.2980769230769231</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="R82" t="n">
-        <v>0.06958783257422452</v>
+        <v>0.04767432500366948</v>
       </c>
       <c r="S82" t="n">
-        <v>0.9064213388677335</v>
+        <v>0.9855465285867556</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>n33</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U82" t="n">
-        <v>1003</v>
+        <v>1054</v>
       </c>
       <c r="V82" t="inlineStr">
         <is>
@@ -7523,40 +7523,40 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2010</v>
+        <v>2676</v>
       </c>
       <c r="B83" t="n">
-        <v>2043</v>
+        <v>2722</v>
       </c>
       <c r="C83" t="n">
-        <v>2144</v>
+        <v>2830</v>
       </c>
       <c r="D83" t="n">
-        <v>2.07816854251472</v>
+        <v>4.031965701534914</v>
       </c>
       <c r="E83" t="n">
-        <v>1.543552369221649</v>
+        <v>3.533506732043582</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.5346161732930702</v>
+        <v>-0.4984589694913319</v>
       </c>
       <c r="G83" t="n">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="H83" t="n">
-        <v>54.42012043896989</v>
+        <v>334.3292367346335</v>
       </c>
       <c r="I83" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="J83" t="n">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K83" t="n">
-        <v>117.3932942740875</v>
+        <v>529.1049997336522</v>
       </c>
       <c r="L83" t="n">
-        <v>10.70793703351498</v>
+        <v>26.77822739449143</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -7572,24 +7572,24 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.9426645612879221</v>
+        <v>0.6117562610306945</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.3267326732673267</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="R83" t="n">
-        <v>0.2848116840592475</v>
+        <v>0.07745910675844803</v>
       </c>
       <c r="S83" t="n">
-        <v>0.8922587207453658</v>
+        <v>0.9377425310166266</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>n33</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U83" t="n">
-        <v>1004</v>
+        <v>1055</v>
       </c>
       <c r="V83" t="inlineStr">
         <is>
@@ -7609,40 +7609,40 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>184</v>
+        <v>2830</v>
       </c>
       <c r="B84" t="n">
-        <v>211</v>
+        <v>2840</v>
       </c>
       <c r="C84" t="n">
-        <v>257</v>
+        <v>2874</v>
       </c>
       <c r="D84" t="n">
-        <v>1.849601844154444</v>
+        <v>3.040355005763907</v>
       </c>
       <c r="E84" t="n">
-        <v>1.297780720636708</v>
+        <v>2.541896036272576</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.551821123517736</v>
+        <v>-0.4984589694913319</v>
       </c>
       <c r="G84" t="n">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="H84" t="n">
-        <v>201.393255383819</v>
+        <v>11.65793386656333</v>
       </c>
       <c r="I84" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="J84" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="K84" t="n">
-        <v>82.56228622508191</v>
+        <v>119.0950236243886</v>
       </c>
       <c r="L84" t="n">
-        <v>4.82807574620023</v>
+        <v>20.192462865776</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -7658,24 +7658,24 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.7803861132835124</v>
+        <v>0.8220409181207097</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.5869565217391305</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="R84" t="n">
-        <v>0.255660373989239</v>
+        <v>0.1032762914446489</v>
       </c>
       <c r="S84" t="n">
-        <v>0.9835142560806426</v>
+        <v>0.9712672822621474</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U84" t="n">
-        <v>1005</v>
+        <v>1056</v>
       </c>
       <c r="V84" t="inlineStr">
         <is>
@@ -7695,40 +7695,40 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1720</v>
+        <v>2874</v>
       </c>
       <c r="B85" t="n">
-        <v>1749</v>
+        <v>2907</v>
       </c>
       <c r="C85" t="n">
-        <v>1879</v>
+        <v>2998</v>
       </c>
       <c r="D85" t="n">
-        <v>4.888834285785192</v>
+        <v>2.828521287240997</v>
       </c>
       <c r="E85" t="n">
-        <v>4.337013162267456</v>
+        <v>2.330062317749665</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.551821123517736</v>
+        <v>-0.4984589694913319</v>
       </c>
       <c r="G85" t="n">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="H85" t="n">
-        <v>90.29230055723724</v>
+        <v>27.99725086950093</v>
       </c>
       <c r="I85" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J85" t="n">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="K85" t="n">
-        <v>335.1506252227019</v>
+        <v>214.6374493560158</v>
       </c>
       <c r="L85" t="n">
-        <v>12.76148286561758</v>
+        <v>18.78557304965783</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
@@ -7744,24 +7744,24 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.8918009089516544</v>
+        <v>0.7800656474815632</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.2230769230769231</v>
+        <v>0.3626373626373626</v>
       </c>
       <c r="R85" t="n">
-        <v>0.5553106030718392</v>
+        <v>0.4128041326227214</v>
       </c>
       <c r="S85" t="n">
-        <v>0.8476076410425919</v>
+        <v>0.8292989452307709</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n30</t>
         </is>
       </c>
       <c r="U85" t="n">
-        <v>1006</v>
+        <v>1057</v>
       </c>
       <c r="V85" t="inlineStr">
         <is>
@@ -7781,40 +7781,40 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2338</v>
+        <v>2439</v>
       </c>
       <c r="B86" t="n">
-        <v>2390</v>
+        <v>2469</v>
       </c>
       <c r="C86" t="n">
-        <v>2569</v>
+        <v>2518</v>
       </c>
       <c r="D86" t="n">
-        <v>2.098524936685241</v>
+        <v>3.789531538338783</v>
       </c>
       <c r="E86" t="n">
-        <v>1.546703813167505</v>
+        <v>3.264173025405068</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.551821123517736</v>
+        <v>-0.5253585129337146</v>
       </c>
       <c r="G86" t="n">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="H86" t="n">
-        <v>90.81568491611506</v>
+        <v>87.00735740409527</v>
       </c>
       <c r="I86" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="J86" t="n">
-        <v>179</v>
+        <v>49</v>
       </c>
       <c r="K86" t="n">
-        <v>271.4073847270383</v>
+        <v>186.2645170907281</v>
       </c>
       <c r="L86" t="n">
-        <v>5.477847776605246</v>
+        <v>9.974419987224719</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -7830,24 +7830,24 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.9046494894964905</v>
+        <v>0.7822816554561079</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.2905027932960894</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="R86" t="n">
-        <v>0.2065169778199648</v>
+        <v>0.2928283782000299</v>
       </c>
       <c r="S86" t="n">
-        <v>0.7246266700370245</v>
+        <v>0.9655718118847494</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n32</t>
         </is>
       </c>
       <c r="U86" t="n">
-        <v>1007</v>
+        <v>1058</v>
       </c>
       <c r="V86" t="inlineStr">
         <is>
@@ -7867,40 +7867,40 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2476</v>
+        <v>1169</v>
       </c>
       <c r="B87" t="n">
-        <v>2500</v>
+        <v>1217</v>
       </c>
       <c r="C87" t="n">
-        <v>2559</v>
+        <v>1326</v>
       </c>
       <c r="D87" t="n">
-        <v>2.525274474870735</v>
+        <v>3.76247630954474</v>
       </c>
       <c r="E87" t="n">
-        <v>1.881287752617281</v>
+        <v>3.22786013625167</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.6439867222534539</v>
+        <v>-0.5346161732930702</v>
       </c>
       <c r="G87" t="n">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="H87" t="n">
-        <v>157.9840182826169</v>
+        <v>87.35363705315854</v>
       </c>
       <c r="I87" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="J87" t="n">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="K87" t="n">
-        <v>164.967650365544</v>
+        <v>358.9509071110591</v>
       </c>
       <c r="L87" t="n">
-        <v>7.814418696611825</v>
+        <v>19.38647351669819</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -7916,24 +7916,24 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.6467909088513206</v>
+        <v>0.7364336484134426</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.4067796610169492</v>
+        <v>0.4403669724770642</v>
       </c>
       <c r="R87" t="n">
-        <v>0.09915187673014697</v>
+        <v>0.08757404207588783</v>
       </c>
       <c r="S87" t="n">
-        <v>0.5604125565868694</v>
+        <v>0.8937482961901138</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n33</t>
         </is>
       </c>
       <c r="U87" t="n">
-        <v>1008</v>
+        <v>1059</v>
       </c>
       <c r="V87" t="inlineStr">
         <is>
@@ -7953,40 +7953,40 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>205</v>
+        <v>1373</v>
       </c>
       <c r="B88" t="n">
-        <v>236</v>
+        <v>1404</v>
       </c>
       <c r="C88" t="n">
-        <v>295</v>
+        <v>1508</v>
       </c>
       <c r="D88" t="n">
-        <v>1.673719760741271</v>
+        <v>4.098878049021364</v>
       </c>
       <c r="E88" t="n">
-        <v>1.058477582043836</v>
+        <v>3.564261875728294</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.615242178697435</v>
+        <v>-0.5346161732930702</v>
       </c>
       <c r="G88" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="H88" t="n">
-        <v>27.66640693947778</v>
+        <v>159.786426558099</v>
       </c>
       <c r="I88" t="n">
         <v>31</v>
       </c>
       <c r="J88" t="n">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="K88" t="n">
-        <v>80.74192931921105</v>
+        <v>391.7126499656861</v>
       </c>
       <c r="L88" t="n">
-        <v>6.159521807462895</v>
+        <v>21.11981158364907</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
@@ -8002,24 +8002,24 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.8479860136007974</v>
+        <v>0.7567855402396941</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.5254237288135594</v>
+        <v>0.2980769230769231</v>
       </c>
       <c r="R88" t="n">
-        <v>0.3574198629797078</v>
+        <v>0.06958783257422452</v>
       </c>
       <c r="S88" t="n">
-        <v>0.9673189041406622</v>
+        <v>0.9064213388677335</v>
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>n36</t>
+          <t>n33</t>
         </is>
       </c>
       <c r="U88" t="n">
-        <v>1009</v>
+        <v>1060</v>
       </c>
       <c r="V88" t="inlineStr">
         <is>
@@ -8039,40 +8039,40 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>660</v>
+        <v>2010</v>
       </c>
       <c r="B89" t="n">
-        <v>691</v>
+        <v>2043</v>
       </c>
       <c r="C89" t="n">
-        <v>793</v>
+        <v>2144</v>
       </c>
       <c r="D89" t="n">
-        <v>1.420729000276113</v>
+        <v>2.07816854251472</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8054868215786776</v>
+        <v>1.543552369221649</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.615242178697435</v>
+        <v>-0.5346161732930702</v>
       </c>
       <c r="G89" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H89" t="n">
-        <v>39.07432747312509</v>
+        <v>54.42012043896989</v>
       </c>
       <c r="I89" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J89" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K89" t="n">
-        <v>90.79947891896688</v>
+        <v>117.3932942740875</v>
       </c>
       <c r="L89" t="n">
-        <v>5.22848057659303</v>
+        <v>10.70793703351498</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
@@ -8088,24 +8088,24 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.8815463570413332</v>
+        <v>0.9426645612879221</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.303921568627451</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="R89" t="n">
-        <v>0.3347462853487413</v>
+        <v>0.2848116840592475</v>
       </c>
       <c r="S89" t="n">
-        <v>0.7165886598909799</v>
+        <v>0.8922587207453658</v>
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>n36</t>
+          <t>n33</t>
         </is>
       </c>
       <c r="U89" t="n">
-        <v>1010</v>
+        <v>1061</v>
       </c>
       <c r="V89" t="inlineStr">
         <is>
@@ -8125,40 +8125,40 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2700</v>
+        <v>184</v>
       </c>
       <c r="B90" t="n">
-        <v>2729</v>
+        <v>211</v>
       </c>
       <c r="C90" t="n">
-        <v>2897</v>
+        <v>257</v>
       </c>
       <c r="D90" t="n">
-        <v>4.388854766708022</v>
+        <v>1.849601844154444</v>
       </c>
       <c r="E90" t="n">
-        <v>3.773612588010587</v>
+        <v>1.297780720636708</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.615242178697435</v>
+        <v>-0.551821123517736</v>
       </c>
       <c r="G90" t="n">
-        <v>197</v>
+        <v>73</v>
       </c>
       <c r="H90" t="n">
-        <v>124.8202092875681</v>
+        <v>201.393255383819</v>
       </c>
       <c r="I90" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J90" t="n">
-        <v>168</v>
+        <v>46</v>
       </c>
       <c r="K90" t="n">
-        <v>390.2115936753107</v>
+        <v>82.56228622508191</v>
       </c>
       <c r="L90" t="n">
-        <v>16.15159674840238</v>
+        <v>4.82807574620023</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
@@ -8174,24 +8174,24 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.8833004534634997</v>
+        <v>0.7803861132835124</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.1726190476190476</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="R90" t="n">
-        <v>0.4877758966064853</v>
+        <v>0.255660373989239</v>
       </c>
       <c r="S90" t="n">
-        <v>0.9519006503603128</v>
+        <v>0.9835142560806426</v>
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>n36</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U90" t="n">
-        <v>1011</v>
+        <v>1062</v>
       </c>
       <c r="V90" t="inlineStr">
         <is>
@@ -8211,40 +8211,40 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2897</v>
+        <v>1720</v>
       </c>
       <c r="B91" t="n">
-        <v>2932</v>
+        <v>1749</v>
       </c>
       <c r="C91" t="n">
-        <v>2998</v>
+        <v>1879</v>
       </c>
       <c r="D91" t="n">
-        <v>2.808042742759848</v>
+        <v>4.888834285785192</v>
       </c>
       <c r="E91" t="n">
-        <v>2.192800564062413</v>
+        <v>4.337013162267456</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.615242178697435</v>
+        <v>-0.551821123517736</v>
       </c>
       <c r="G91" t="n">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="H91" t="n">
-        <v>40.6961877028275</v>
+        <v>90.29230055723724</v>
       </c>
       <c r="I91" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J91" t="n">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="K91" t="n">
-        <v>169.9680085241509</v>
+        <v>335.1506252227019</v>
       </c>
       <c r="L91" t="n">
-        <v>10.33398835098709</v>
+        <v>12.76148286561758</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
@@ -8260,24 +8260,24 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.8373008039977365</v>
+        <v>0.8918009089516544</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.5303030303030303</v>
+        <v>0.2230769230769231</v>
       </c>
       <c r="R91" t="n">
-        <v>0.175034776577304</v>
+        <v>0.5553106030718392</v>
       </c>
       <c r="S91" t="n">
-        <v>0.9814211899016071</v>
+        <v>0.8476076410425919</v>
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>n36</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U91" t="n">
-        <v>1012</v>
+        <v>1063</v>
       </c>
       <c r="V91" t="inlineStr">
         <is>
@@ -8297,40 +8297,40 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0</v>
+        <v>2338</v>
       </c>
       <c r="B92" t="n">
-        <v>12</v>
+        <v>2390</v>
       </c>
       <c r="C92" t="n">
-        <v>103</v>
+        <v>2569</v>
       </c>
       <c r="D92" t="n">
-        <v>4.868978395600191</v>
+        <v>2.098524936685241</v>
       </c>
       <c r="E92" t="n">
-        <v>4.342705695257314</v>
+        <v>1.546703813167505</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5262727003428769</v>
+        <v>-0.551821123517736</v>
       </c>
       <c r="G92" t="n">
-        <v>103</v>
+        <v>231</v>
       </c>
       <c r="H92" t="n">
-        <v>19.84585591258453</v>
+        <v>90.81568491611506</v>
       </c>
       <c r="I92" t="n">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="J92" t="n">
-        <v>91</v>
+        <v>179</v>
       </c>
       <c r="K92" t="n">
-        <v>259.2411881702928</v>
+        <v>271.4073847270383</v>
       </c>
       <c r="L92" t="n">
-        <v>15.49762490211706</v>
+        <v>5.477847776605246</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
@@ -8346,24 +8346,24 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.8210714096838665</v>
+        <v>0.9046494894964905</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.1318681318681319</v>
+        <v>0.2905027932960894</v>
       </c>
       <c r="R92" t="n">
-        <v>0.4776330701338334</v>
+        <v>0.2065169778199648</v>
       </c>
       <c r="S92" t="n">
-        <v>0.9420869685597832</v>
+        <v>0.7246266700370245</v>
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U92" t="n">
-        <v>1013</v>
+        <v>1064</v>
       </c>
       <c r="V92" t="inlineStr">
         <is>
@@ -8383,40 +8383,40 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>103</v>
+        <v>2476</v>
       </c>
       <c r="B93" t="n">
-        <v>133</v>
+        <v>2500</v>
       </c>
       <c r="C93" t="n">
-        <v>220</v>
+        <v>2559</v>
       </c>
       <c r="D93" t="n">
-        <v>1.696153002836134</v>
+        <v>2.525274474870735</v>
       </c>
       <c r="E93" t="n">
-        <v>1.169880302493257</v>
+        <v>1.881287752617281</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.5262727003428769</v>
+        <v>-0.6439867222534539</v>
       </c>
       <c r="G93" t="n">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="H93" t="n">
-        <v>92.40265282778157</v>
+        <v>157.9840182826169</v>
       </c>
       <c r="I93" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J93" t="n">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="K93" t="n">
-        <v>169.5078281792381</v>
+        <v>164.967650365544</v>
       </c>
       <c r="L93" t="n">
-        <v>5.398738889108095</v>
+        <v>7.814418696611825</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
@@ -8432,24 +8432,24 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.6831254827605444</v>
+        <v>0.6467909088513206</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.3448275862068966</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="R93" t="n">
-        <v>0.1409292957018204</v>
+        <v>0.09915187673014697</v>
       </c>
       <c r="S93" t="n">
-        <v>0.3287629862319356</v>
+        <v>0.5604125565868694</v>
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n35</t>
         </is>
       </c>
       <c r="U93" t="n">
-        <v>1014</v>
+        <v>1065</v>
       </c>
       <c r="V93" t="inlineStr">
         <is>
@@ -8469,40 +8469,40 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>269</v>
+        <v>205</v>
       </c>
       <c r="B94" t="n">
-        <v>300</v>
+        <v>236</v>
       </c>
       <c r="C94" t="n">
-        <v>906</v>
+        <v>295</v>
       </c>
       <c r="D94" t="n">
-        <v>4.595300540176846</v>
+        <v>1.673719760741271</v>
       </c>
       <c r="E94" t="n">
-        <v>4.06902783983397</v>
+        <v>1.058477582043836</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.5262727003428769</v>
+        <v>-0.615242178697435</v>
       </c>
       <c r="G94" t="n">
-        <v>637</v>
+        <v>90</v>
       </c>
       <c r="H94" t="n">
-        <v>68.68477669302411</v>
+        <v>27.66640693947778</v>
       </c>
       <c r="I94" t="n">
         <v>31</v>
       </c>
       <c r="J94" t="n">
-        <v>606</v>
+        <v>59</v>
       </c>
       <c r="K94" t="n">
-        <v>641.3994316157796</v>
+        <v>80.74192931921105</v>
       </c>
       <c r="L94" t="n">
-        <v>14.62652702433648</v>
+        <v>6.159521807462895</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
@@ -8518,24 +8518,24 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.6693972007670176</v>
+        <v>0.8479860136007974</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.05115511551155116</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="R94" t="n">
-        <v>0.7387115885217007</v>
+        <v>0.3574198629797078</v>
       </c>
       <c r="S94" t="n">
-        <v>0.534585871806226</v>
+        <v>0.9673189041406622</v>
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>n37</t>
+          <t>n36</t>
         </is>
       </c>
       <c r="U94" t="n">
-        <v>1015</v>
+        <v>1066</v>
       </c>
       <c r="V94" t="inlineStr">
         <is>
@@ -8555,40 +8555,40 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1550</v>
+        <v>660</v>
       </c>
       <c r="B95" t="n">
-        <v>1575</v>
+        <v>691</v>
       </c>
       <c r="C95" t="n">
-        <v>1651</v>
+        <v>793</v>
       </c>
       <c r="D95" t="n">
-        <v>4.245873903026878</v>
+        <v>1.420729000276113</v>
       </c>
       <c r="E95" t="n">
-        <v>3.737140967767709</v>
+        <v>0.8054868215786776</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.5087329352591684</v>
+        <v>-0.615242178697435</v>
       </c>
       <c r="G95" t="n">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="H95" t="n">
-        <v>83.02760539688097</v>
+        <v>39.07432747312509</v>
       </c>
       <c r="I95" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J95" t="n">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="K95" t="n">
-        <v>203.589750643547</v>
+        <v>90.79947891896688</v>
       </c>
       <c r="L95" t="n">
-        <v>12.88757383629318</v>
+        <v>5.22848057659303</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
@@ -8604,24 +8604,24 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.8945161404812882</v>
+        <v>0.8815463570413332</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.3289473684210527</v>
+        <v>0.303921568627451</v>
       </c>
       <c r="R95" t="n">
-        <v>0.5684533247493176</v>
+        <v>0.3347462853487413</v>
       </c>
       <c r="S95" t="n">
-        <v>0.9342638709022787</v>
+        <v>0.7165886598909799</v>
       </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>n38</t>
+          <t>n36</t>
         </is>
       </c>
       <c r="U95" t="n">
-        <v>1016</v>
+        <v>1067</v>
       </c>
       <c r="V95" t="inlineStr">
         <is>
@@ -8641,85 +8641,601 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2729</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2897</v>
+      </c>
+      <c r="D96" t="n">
+        <v>4.388854766708022</v>
+      </c>
+      <c r="E96" t="n">
+        <v>3.773612588010587</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-0.615242178697435</v>
+      </c>
+      <c r="G96" t="n">
+        <v>197</v>
+      </c>
+      <c r="H96" t="n">
+        <v>124.8202092875681</v>
+      </c>
+      <c r="I96" t="n">
+        <v>29</v>
+      </c>
+      <c r="J96" t="n">
+        <v>168</v>
+      </c>
+      <c r="K96" t="n">
+        <v>390.2115936753107</v>
+      </c>
+      <c r="L96" t="n">
+        <v>16.15159674840238</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>0.8833004534634997</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0.1726190476190476</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.4877758966064853</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0.9519006503603128</v>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>n36</t>
+        </is>
+      </c>
+      <c r="U96" t="n">
+        <v>1068</v>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>2897</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2932</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2998</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2.808042742759848</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2.192800564062413</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-0.615242178697435</v>
+      </c>
+      <c r="G97" t="n">
+        <v>101</v>
+      </c>
+      <c r="H97" t="n">
+        <v>40.6961877028275</v>
+      </c>
+      <c r="I97" t="n">
+        <v>35</v>
+      </c>
+      <c r="J97" t="n">
+        <v>66</v>
+      </c>
+      <c r="K97" t="n">
+        <v>169.9680085241509</v>
+      </c>
+      <c r="L97" t="n">
+        <v>10.33398835098709</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>0.8373008039977365</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0.5303030303030303</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.175034776577304</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0.9814211899016071</v>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>n36</t>
+        </is>
+      </c>
+      <c r="U97" t="n">
+        <v>1069</v>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>12</v>
+      </c>
+      <c r="C98" t="n">
+        <v>103</v>
+      </c>
+      <c r="D98" t="n">
+        <v>4.868978395600191</v>
+      </c>
+      <c r="E98" t="n">
+        <v>4.342705695257314</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-0.5262727003428769</v>
+      </c>
+      <c r="G98" t="n">
+        <v>103</v>
+      </c>
+      <c r="H98" t="n">
+        <v>19.84585591258453</v>
+      </c>
+      <c r="I98" t="n">
+        <v>12</v>
+      </c>
+      <c r="J98" t="n">
+        <v>91</v>
+      </c>
+      <c r="K98" t="n">
+        <v>259.2411881702928</v>
+      </c>
+      <c r="L98" t="n">
+        <v>15.49762490211706</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>0.8210714096838665</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0.1318681318681319</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0.4776330701338334</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0.9420869685597832</v>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U98" t="n">
+        <v>1070</v>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>103</v>
+      </c>
+      <c r="B99" t="n">
+        <v>133</v>
+      </c>
+      <c r="C99" t="n">
+        <v>220</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1.696153002836134</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.169880302493257</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-0.5262727003428769</v>
+      </c>
+      <c r="G99" t="n">
+        <v>117</v>
+      </c>
+      <c r="H99" t="n">
+        <v>92.40265282778157</v>
+      </c>
+      <c r="I99" t="n">
+        <v>30</v>
+      </c>
+      <c r="J99" t="n">
+        <v>87</v>
+      </c>
+      <c r="K99" t="n">
+        <v>169.5078281792381</v>
+      </c>
+      <c r="L99" t="n">
+        <v>5.398738889108095</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>0.6831254827605444</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0.3448275862068966</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0.1409292957018204</v>
+      </c>
+      <c r="S99" t="n">
+        <v>0.3287629862319356</v>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U99" t="n">
+        <v>1071</v>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>269</v>
+      </c>
+      <c r="B100" t="n">
+        <v>300</v>
+      </c>
+      <c r="C100" t="n">
+        <v>906</v>
+      </c>
+      <c r="D100" t="n">
+        <v>4.595300540176846</v>
+      </c>
+      <c r="E100" t="n">
+        <v>4.06902783983397</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-0.5262727003428769</v>
+      </c>
+      <c r="G100" t="n">
+        <v>637</v>
+      </c>
+      <c r="H100" t="n">
+        <v>68.68477669302411</v>
+      </c>
+      <c r="I100" t="n">
+        <v>31</v>
+      </c>
+      <c r="J100" t="n">
+        <v>606</v>
+      </c>
+      <c r="K100" t="n">
+        <v>641.3994316157796</v>
+      </c>
+      <c r="L100" t="n">
+        <v>14.62652702433648</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>0.6693972007670176</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0.05115511551155116</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.7387115885217007</v>
+      </c>
+      <c r="S100" t="n">
+        <v>0.534585871806226</v>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>n37</t>
+        </is>
+      </c>
+      <c r="U100" t="n">
+        <v>1072</v>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1550</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1575</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1651</v>
+      </c>
+      <c r="D101" t="n">
+        <v>4.245873903026878</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3.737140967767709</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-0.5087329352591684</v>
+      </c>
+      <c r="G101" t="n">
+        <v>101</v>
+      </c>
+      <c r="H101" t="n">
+        <v>83.02760539688097</v>
+      </c>
+      <c r="I101" t="n">
+        <v>25</v>
+      </c>
+      <c r="J101" t="n">
+        <v>76</v>
+      </c>
+      <c r="K101" t="n">
+        <v>203.589750643547</v>
+      </c>
+      <c r="L101" t="n">
+        <v>12.88757383629318</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>0.8945161404812882</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0.3289473684210527</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0.5684533247493176</v>
+      </c>
+      <c r="S101" t="n">
+        <v>0.9342638709022787</v>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>n38</t>
+        </is>
+      </c>
+      <c r="U101" t="n">
+        <v>1073</v>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
         <v>1937</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B102" t="n">
         <v>1965</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C102" t="n">
         <v>2037</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D102" t="n">
         <v>3.051738608867473</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E102" t="n">
         <v>2.543005673608305</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F102" t="n">
         <v>-0.5087329352591684</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G102" t="n">
         <v>100</v>
       </c>
-      <c r="H96" t="n">
+      <c r="H102" t="n">
         <v>48.35492387726799</v>
       </c>
-      <c r="I96" t="n">
+      <c r="I102" t="n">
         <v>28</v>
       </c>
-      <c r="J96" t="n">
+      <c r="J102" t="n">
         <v>72</v>
       </c>
-      <c r="K96" t="n">
+      <c r="K102" t="n">
         <v>163.9069621408426</v>
       </c>
-      <c r="L96" t="n">
+      <c r="L102" t="n">
         <v>9.262994509283057</v>
       </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
-        <v>0</v>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P96" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
         <v>0.8850842977929172</v>
       </c>
-      <c r="Q96" t="n">
+      <c r="Q102" t="n">
         <v>0.3888888888888889</v>
       </c>
-      <c r="R96" t="n">
+      <c r="R102" t="n">
         <v>0.3059730190561505</v>
       </c>
-      <c r="S96" t="n">
+      <c r="S102" t="n">
         <v>0.8647271318731241</v>
       </c>
-      <c r="T96" t="inlineStr">
+      <c r="T102" t="inlineStr">
         <is>
           <t>n38</t>
         </is>
       </c>
-      <c r="U96" t="n">
-        <v>1017</v>
-      </c>
-      <c r="V96" t="inlineStr">
-        <is>
-          <t>processed_240924openfieldtrace.xlsx</t>
-        </is>
-      </c>
-      <c r="W96" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
-        </is>
-      </c>
-      <c r="X96" t="inlineStr">
+      <c r="U102" t="n">
+        <v>1074</v>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
+        </is>
+      </c>
+      <c r="X102" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_240924openfieldtrace.xlsx</t>
         </is>
